--- a/Simulations/Results/state_perturbation/state_perturbation.xlsx
+++ b/Simulations/Results/state_perturbation/state_perturbation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,126 @@
   </si>
   <si>
     <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dr (m)</t>
+  </si>
+  <si>
+    <t>dtheta (m)</t>
+  </si>
+  <si>
+    <t>dh (m)</t>
+  </si>
+  <si>
+    <t>dv_r (m/s)</t>
+  </si>
+  <si>
+    <t>dv_theta (m/s)</t>
+  </si>
+  <si>
+    <t>dv_h (m/s)</t>
+  </si>
+  <si>
+    <t>delta_rho (m)</t>
+  </si>
+  <si>
+    <t>delta_rhodot (m)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.15625" customWidth="true"/>
@@ -189,32 +309,40 @@
     <col min="6" max="6" width="15.37890625" customWidth="true"/>
     <col min="7" max="7" width="16.046875" customWidth="true"/>
     <col min="8" max="8" width="15.37890625" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="15.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -241,6 +369,12 @@
       </c>
       <c r="H2" s="0">
         <v>8.2672129295904692e-07</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.00094706042474199429</v>
+      </c>
+      <c r="J2" s="0">
+        <v>8.7809506004901481e-07</v>
       </c>
     </row>
     <row r="3">
@@ -268,6 +402,12 @@
       <c r="H3" s="0">
         <v>8.0440062202438228e-07</v>
       </c>
+      <c r="I3" s="0">
+        <v>0.00094550348337945375</v>
+      </c>
+      <c r="J3" s="0">
+        <v>8.5934765716717376e-07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -294,6 +434,12 @@
       <c r="H4" s="0">
         <v>1.2053722385342411e-06</v>
       </c>
+      <c r="I4" s="0">
+        <v>0.00095010318800047933</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1.2273647956490436e-06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -320,6 +466,12 @@
       <c r="H5" s="0">
         <v>1.1630465703438184e-06</v>
       </c>
+      <c r="I5" s="0">
+        <v>0.00094941477901767631</v>
+      </c>
+      <c r="J5" s="0">
+        <v>1.1877737725245012e-06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -346,6 +498,12 @@
       <c r="H6" s="0">
         <v>7.9940913540928571e-07</v>
       </c>
+      <c r="I6" s="0">
+        <v>0.00094561560489215635</v>
+      </c>
+      <c r="J6" s="0">
+        <v>8.9348877555294167e-07</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -372,6 +530,12 @@
       <c r="H7" s="0">
         <v>1.2184435555035545e-06</v>
       </c>
+      <c r="I7" s="0">
+        <v>0.00095071287578307056</v>
+      </c>
+      <c r="J7" s="0">
+        <v>1.2399948154530668e-06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -398,6 +562,12 @@
       <c r="H8" s="0">
         <v>7.628204213029265e-07</v>
       </c>
+      <c r="I8" s="0">
+        <v>0.00094521429404800035</v>
+      </c>
+      <c r="J8" s="0">
+        <v>8.237363022995744e-07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -424,6 +594,12 @@
       <c r="H9" s="0">
         <v>1.1656567583606378e-06</v>
       </c>
+      <c r="I9" s="0">
+        <v>0.00094957206364396508</v>
+      </c>
+      <c r="J9" s="0">
+        <v>1.18838665975235e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -450,6 +626,12 @@
       <c r="H10" s="0">
         <v>1.1087047557401432e-06</v>
       </c>
+      <c r="I10" s="0">
+        <v>0.00094913638766543388</v>
+      </c>
+      <c r="J10" s="0">
+        <v>1.1365432274437316e-06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -476,6 +658,12 @@
       <c r="H11" s="0">
         <v>1.5964494352132879e-06</v>
       </c>
+      <c r="I11" s="0">
+        <v>0.00095661781854796324</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1.6114558805275838e-06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -502,6 +690,12 @@
       <c r="H12" s="0">
         <v>7.8198439341686157e-07</v>
       </c>
+      <c r="I12" s="0">
+        <v>0.00094545442355765713</v>
+      </c>
+      <c r="J12" s="0">
+        <v>8.7801397638056786e-07</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -528,6 +722,12 @@
       <c r="H13" s="0">
         <v>8.6144290690374352e-07</v>
       </c>
+      <c r="I13" s="0">
+        <v>0.00094737127898692397</v>
+      </c>
+      <c r="J13" s="0">
+        <v>9.1099885323923843e-07</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -554,6 +754,12 @@
       <c r="H14" s="0">
         <v>6.3407680496879131e-07</v>
       </c>
+      <c r="I14" s="0">
+        <v>0.00094468472636835262</v>
+      </c>
+      <c r="J14" s="0">
+        <v>7.1983540138147522e-07</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -580,6 +786,12 @@
       <c r="H15" s="0">
         <v>8.6451907093264752e-07</v>
       </c>
+      <c r="I15" s="0">
+        <v>0.00094747070463602299</v>
+      </c>
+      <c r="J15" s="0">
+        <v>9.1366045739196561e-07</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -606,6 +818,12 @@
       <c r="H16" s="0">
         <v>6.4972055090748898e-07</v>
       </c>
+      <c r="I16" s="0">
+        <v>0.0009447595554103169</v>
+      </c>
+      <c r="J16" s="0">
+        <v>7.3401423758858388e-07</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -632,6 +850,12 @@
       <c r="H17" s="0">
         <v>8.7282747556052264e-07</v>
       </c>
+      <c r="I17" s="0">
+        <v>0.00094659470170858722</v>
+      </c>
+      <c r="J17" s="0">
+        <v>9.5738514712580234e-07</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -658,6 +882,12 @@
       <c r="H18" s="0">
         <v>8.2034094596902315e-07</v>
       </c>
+      <c r="I18" s="0">
+        <v>0.00094597900969307686</v>
+      </c>
+      <c r="J18" s="0">
+        <v>9.1082219375322951e-07</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -684,6 +914,12 @@
       <c r="H19" s="0">
         <v>8.0787686466750131e-07</v>
       </c>
+      <c r="I19" s="0">
+        <v>0.00094589382364931363</v>
+      </c>
+      <c r="J19" s="0">
+        <v>8.9936585987589004e-07</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
@@ -710,6 +946,12 @@
       <c r="H20" s="0">
         <v>8.9458465729335378e-07</v>
       </c>
+      <c r="I20" s="0">
+        <v>0.00094630245105138276</v>
+      </c>
+      <c r="J20" s="0">
+        <v>9.389597004197105e-07</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -736,6 +978,12 @@
       <c r="H21" s="0">
         <v>5.8265978146433918e-07</v>
       </c>
+      <c r="I21" s="0">
+        <v>0.00094415817318223847</v>
+      </c>
+      <c r="J21" s="0">
+        <v>6.7764787912322002e-07</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
@@ -762,6 +1010,12 @@
       <c r="H22" s="0">
         <v>8.9379057446389943e-07</v>
       </c>
+      <c r="I22" s="0">
+        <v>0.00094777414657013111</v>
+      </c>
+      <c r="J22" s="0">
+        <v>9.386716301931916e-07</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -788,6 +1042,12 @@
       <c r="H23" s="0">
         <v>9.3250055832649709e-07</v>
       </c>
+      <c r="I23" s="0">
+        <v>0.00094781724475631796</v>
+      </c>
+      <c r="J23" s="0">
+        <v>1.0075734116097258e-06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
@@ -814,6 +1074,12 @@
       <c r="H24" s="0">
         <v>8.5191109598660752e-07</v>
       </c>
+      <c r="I24" s="0">
+        <v>0.00094655820008159204</v>
+      </c>
+      <c r="J24" s="0">
+        <v>9.37043577805573e-07</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -840,6 +1106,12 @@
       <c r="H25" s="0">
         <v>8.4306725742333907e-07</v>
       </c>
+      <c r="I25" s="0">
+        <v>0.00094718965579228894</v>
+      </c>
+      <c r="J25" s="0">
+        <v>8.9361897520672804e-07</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -866,6 +1138,12 @@
       <c r="H26" s="0">
         <v>7.2648987780260127e-07</v>
       </c>
+      <c r="I26" s="0">
+        <v>0.00094591703561760078</v>
+      </c>
+      <c r="J26" s="0">
+        <v>8.3509733500566816e-07</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
@@ -892,6 +1170,12 @@
       <c r="H27" s="0">
         <v>7.7072145189873793e-07</v>
       </c>
+      <c r="I27" s="0">
+        <v>0.00094527043821610046</v>
+      </c>
+      <c r="J27" s="0">
+        <v>8.3113701708046834e-07</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
@@ -918,6 +1202,12 @@
       <c r="H28" s="0">
         <v>9.5571290283659223e-07</v>
       </c>
+      <c r="I28" s="0">
+        <v>0.00094700595872753844</v>
+      </c>
+      <c r="J28" s="0">
+        <v>1.0255965415908803e-06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
@@ -944,6 +1234,12 @@
       <c r="H29" s="0">
         <v>7.353345613365375e-07</v>
       </c>
+      <c r="I29" s="0">
+        <v>0.00094629601468172188</v>
+      </c>
+      <c r="J29" s="0">
+        <v>8.0230990483970755e-07</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
@@ -970,6 +1266,12 @@
       <c r="H30" s="0">
         <v>1.2400446933363562e-06</v>
       </c>
+      <c r="I30" s="0">
+        <v>0.00095109434586446997</v>
+      </c>
+      <c r="J30" s="0">
+        <v>1.2611711763568229e-06</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
@@ -996,6 +1298,12 @@
       <c r="H31" s="0">
         <v>6.8657603523357401e-07</v>
       </c>
+      <c r="I31" s="0">
+        <v>0.00094542472197448762</v>
+      </c>
+      <c r="J31" s="0">
+        <v>7.6352724534435777e-07</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
@@ -1022,6 +1330,12 @@
       <c r="H32" s="0">
         <v>8.4951249937834611e-07</v>
       </c>
+      <c r="I32" s="0">
+        <v>0.00094651873482136156</v>
+      </c>
+      <c r="J32" s="0">
+        <v>9.3499785327611537e-07</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
@@ -1048,6 +1362,12 @@
       <c r="H33" s="0">
         <v>9.0412225978248651e-07</v>
       </c>
+      <c r="I33" s="0">
+        <v>0.00094748039941196975</v>
+      </c>
+      <c r="J33" s="0">
+        <v>9.8171112554224474e-07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
@@ -1074,6 +1394,12 @@
       <c r="H34" s="0">
         <v>9.5149605231257611e-07</v>
       </c>
+      <c r="I34" s="0">
+        <v>0.00094805123554467837</v>
+      </c>
+      <c r="J34" s="0">
+        <v>9.9172759673741366e-07</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -1100,6 +1426,12 @@
       <c r="H35" s="0">
         <v>8.8090499818371004e-07</v>
       </c>
+      <c r="I35" s="0">
+        <v>0.00094698695845446144</v>
+      </c>
+      <c r="J35" s="0">
+        <v>9.6230080527652358e-07</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
@@ -1126,6 +1458,12 @@
       <c r="H36" s="0">
         <v>8.5571517796503196e-07</v>
       </c>
+      <c r="I36" s="0">
+        <v>0.0009466930547937047</v>
+      </c>
+      <c r="J36" s="0">
+        <v>9.3971335529965636e-07</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
@@ -1152,6 +1490,12 @@
       <c r="H37" s="0">
         <v>6.7072020437522438e-07</v>
       </c>
+      <c r="I37" s="0">
+        <v>0.00094509737777983844</v>
+      </c>
+      <c r="J37" s="0">
+        <v>7.9116723018137312e-07</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -1178,6 +1522,12 @@
       <c r="H38" s="0">
         <v>7.8444487713556795e-07</v>
       </c>
+      <c r="I38" s="0">
+        <v>0.00094539814771105906</v>
+      </c>
+      <c r="J38" s="0">
+        <v>8.4388557766309028e-07</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -1204,6 +1554,12 @@
       <c r="H39" s="0">
         <v>8.5545607867330461e-07</v>
       </c>
+      <c r="I39" s="0">
+        <v>0.00094731739208582457</v>
+      </c>
+      <c r="J39" s="0">
+        <v>9.0531099262326823e-07</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -1230,6 +1586,12 @@
       <c r="H40" s="0">
         <v>8.1652257966109492e-07</v>
       </c>
+      <c r="I40" s="0">
+        <v>0.00094567026374559439</v>
+      </c>
+      <c r="J40" s="0">
+        <v>8.7395677239085384e-07</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
@@ -1256,6 +1618,12 @@
       <c r="H41" s="0">
         <v>8.102834169223494e-07</v>
       </c>
+      <c r="I41" s="0">
+        <v>0.00094589460090613233</v>
+      </c>
+      <c r="J41" s="0">
+        <v>9.0171696461632669e-07</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -1282,6 +1650,12 @@
       <c r="H42" s="0">
         <v>8.4987692726077736e-07</v>
       </c>
+      <c r="I42" s="0">
+        <v>0.00094638974317776765</v>
+      </c>
+      <c r="J42" s="0">
+        <v>9.3640088050683949e-07</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -1308,6 +1682,12 @@
       <c r="H43" s="0">
         <v>1.3831278717525139e-06</v>
       </c>
+      <c r="I43" s="0">
+        <v>0.00095353460447973658</v>
+      </c>
+      <c r="J43" s="0">
+        <v>1.3988915024918993e-06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -1334,6 +1714,12 @@
       <c r="H44" s="0">
         <v>8.6816117068449883e-07</v>
       </c>
+      <c r="I44" s="0">
+        <v>0.00094741681732743021</v>
+      </c>
+      <c r="J44" s="0">
+        <v>9.1745019222046347e-07</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
@@ -1360,6 +1746,12 @@
       <c r="H45" s="0">
         <v>1.1474883867307212e-06</v>
       </c>
+      <c r="I45" s="0">
+        <v>0.00094924193677825856</v>
+      </c>
+      <c r="J45" s="0">
+        <v>1.1725029979580287e-06</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
@@ -1386,6 +1778,12 @@
       <c r="H46" s="0">
         <v>8.5304135328317466e-07</v>
       </c>
+      <c r="I46" s="0">
+        <v>0.00094727555739803888</v>
+      </c>
+      <c r="J46" s="0">
+        <v>9.0309518364273557e-07</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
@@ -1412,6 +1810,12 @@
       <c r="H47" s="0">
         <v>5.8535116116101462e-07</v>
       </c>
+      <c r="I47" s="0">
+        <v>0.00094470556336850539</v>
+      </c>
+      <c r="J47" s="0">
+        <v>7.2530356810068055e-07</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
@@ -1438,6 +1842,12 @@
       <c r="H48" s="0">
         <v>1.1589758195793967e-06</v>
       </c>
+      <c r="I48" s="0">
+        <v>0.00094940019758516891</v>
+      </c>
+      <c r="J48" s="0">
+        <v>1.1837378485163611e-06</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -1464,6 +1874,12 @@
       <c r="H49" s="0">
         <v>1.8231261699836402e-06</v>
       </c>
+      <c r="I49" s="0">
+        <v>0.00096091966321913799</v>
+      </c>
+      <c r="J49" s="0">
+        <v>1.8479708416072438e-06</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -1490,6 +1906,12 @@
       <c r="H50" s="0">
         <v>7.5633708045755894e-07</v>
       </c>
+      <c r="I50" s="0">
+        <v>0.00094493220723624726</v>
+      </c>
+      <c r="J50" s="0">
+        <v>8.5792778116770813e-07</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
@@ -1516,6 +1938,12 @@
       <c r="H51" s="0">
         <v>7.3499964873218761e-07</v>
       </c>
+      <c r="I51" s="0">
+        <v>0.00094598763542193764</v>
+      </c>
+      <c r="J51" s="0">
+        <v>8.4248825603393187e-07</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -1542,6 +1970,12 @@
       <c r="H52" s="0">
         <v>8.285425319076768e-07</v>
       </c>
+      <c r="I52" s="0">
+        <v>0.00094711941020289765</v>
+      </c>
+      <c r="J52" s="0">
+        <v>8.8295366438672433e-07</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -1568,6 +2002,12 @@
       <c r="H53" s="0">
         <v>6.2554508926702212e-07</v>
       </c>
+      <c r="I53" s="0">
+        <v>0.00094463362286531657</v>
+      </c>
+      <c r="J53" s="0">
+        <v>7.1221818236706917e-07</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -1594,6 +2034,12 @@
       <c r="H54" s="0">
         <v>7.0682765180050647e-07</v>
       </c>
+      <c r="I54" s="0">
+        <v>0.00094549211379716335</v>
+      </c>
+      <c r="J54" s="0">
+        <v>8.2069338986924118e-07</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -1620,6 +2066,12 @@
       <c r="H55" s="0">
         <v>8.1140297683053017e-07</v>
       </c>
+      <c r="I55" s="0">
+        <v>0.00094562478704613979</v>
+      </c>
+      <c r="J55" s="0">
+        <v>8.691525865274466e-07</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
@@ -1646,6 +2098,12 @@
       <c r="H56" s="0">
         <v>9.1666947686143915e-07</v>
       </c>
+      <c r="I56" s="0">
+        <v>0.00094660715965355993</v>
+      </c>
+      <c r="J56" s="0">
+        <v>9.5981420683656465e-07</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
@@ -1672,6 +2130,12 @@
       <c r="H57" s="0">
         <v>6.8540736611105795e-07</v>
       </c>
+      <c r="I57" s="0">
+        <v>0.00094522563028989965</v>
+      </c>
+      <c r="J57" s="0">
+        <v>8.0340304216443041e-07</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -1698,6 +2162,12 @@
       <c r="H58" s="0">
         <v>9.5149579730800523e-07</v>
       </c>
+      <c r="I58" s="0">
+        <v>0.0009468800654729787</v>
+      </c>
+      <c r="J58" s="0">
+        <v>9.9349446768507521e-07</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
@@ -1724,6 +2194,12 @@
       <c r="H59" s="0">
         <v>8.1103364191001768e-07</v>
       </c>
+      <c r="I59" s="0">
+        <v>0.00094592511113026734</v>
+      </c>
+      <c r="J59" s="0">
+        <v>9.0217051642201416e-07</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
@@ -1750,6 +2226,12 @@
       <c r="H60" s="0">
         <v>6.3456913388834981e-07</v>
       </c>
+      <c r="I60" s="0">
+        <v>0.00094470520303628364</v>
+      </c>
+      <c r="J60" s="0">
+        <v>7.2014656750131893e-07</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
@@ -1776,6 +2258,12 @@
       <c r="H61" s="0">
         <v>1.2627112951062785e-06</v>
       </c>
+      <c r="I61" s="0">
+        <v>0.0009514555477822367</v>
+      </c>
+      <c r="J61" s="0">
+        <v>1.2834416698437722e-06</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
@@ -1802,6 +2290,12 @@
       <c r="H62" s="0">
         <v>1.4844548045530736e-06</v>
       </c>
+      <c r="I62" s="0">
+        <v>0.00095516247746822041</v>
+      </c>
+      <c r="J62" s="0">
+        <v>1.4988285985864819e-06</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -1828,6 +2322,12 @@
       <c r="H63" s="0">
         <v>6.24172236661205e-07</v>
       </c>
+      <c r="I63" s="0">
+        <v>0.00094463915949344541</v>
+      </c>
+      <c r="J63" s="0">
+        <v>7.1089293506463755e-07</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -1854,6 +2354,12 @@
       <c r="H64" s="0">
         <v>1.0083236143062641e-06</v>
       </c>
+      <c r="I64" s="0">
+        <v>0.00094888343828106246</v>
+      </c>
+      <c r="J64" s="0">
+        <v>1.0438969739401255e-06</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -1880,6 +2386,12 @@
       <c r="H65" s="0">
         <v>7.6179864336254281e-07</v>
       </c>
+      <c r="I65" s="0">
+        <v>0.00094497619399417331</v>
+      </c>
+      <c r="J65" s="0">
+        <v>8.6275278413203778e-07</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
@@ -1906,6 +2418,12 @@
       <c r="H66" s="0">
         <v>1.0809858614565118e-06</v>
       </c>
+      <c r="I66" s="0">
+        <v>0.00094883595867537875</v>
+      </c>
+      <c r="J66" s="0">
+        <v>1.111236661258107e-06</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -1932,6 +2450,12 @@
       <c r="H67" s="0">
         <v>1.0880895897421354e-06</v>
       </c>
+      <c r="I67" s="0">
+        <v>0.00094896080187137247</v>
+      </c>
+      <c r="J67" s="0">
+        <v>1.1163057057779564e-06</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
@@ -1958,6 +2482,12 @@
       <c r="H68" s="0">
         <v>8.7019724635290602e-07</v>
       </c>
+      <c r="I68" s="0">
+        <v>0.00094744513500916747</v>
+      </c>
+      <c r="J68" s="0">
+        <v>9.193515250388812e-07</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -1984,6 +2514,12 @@
       <c r="H69" s="0">
         <v>1.0859412066896687e-06</v>
       </c>
+      <c r="I69" s="0">
+        <v>0.00094886199802496818</v>
+      </c>
+      <c r="J69" s="0">
+        <v>1.1161357362940772e-06</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
@@ -2010,6 +2546,12 @@
       <c r="H70" s="0">
         <v>9.2923699733301787e-07</v>
       </c>
+      <c r="I70" s="0">
+        <v>0.00094787955809460059</v>
+      </c>
+      <c r="J70" s="0">
+        <v>9.7018707607525799e-07</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
@@ -2036,6 +2578,12 @@
       <c r="H71" s="0">
         <v>8.5922993037379014e-07</v>
       </c>
+      <c r="I71" s="0">
+        <v>0.00094664630905064292</v>
+      </c>
+      <c r="J71" s="0">
+        <v>9.4355338851771232e-07</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -2062,6 +2610,12 @@
       <c r="H72" s="0">
         <v>1.5015825597433871e-06</v>
       </c>
+      <c r="I72" s="0">
+        <v>0.00095497747213980238</v>
+      </c>
+      <c r="J72" s="0">
+        <v>1.5163040202434286e-06</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
@@ -2088,6 +2642,12 @@
       <c r="H73" s="0">
         <v>8.7960091943006876e-07</v>
       </c>
+      <c r="I73" s="0">
+        <v>0.00094693409567692902</v>
+      </c>
+      <c r="J73" s="0">
+        <v>9.6142290253602668e-07</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -2114,6 +2674,12 @@
       <c r="H74" s="0">
         <v>8.0669018955093461e-07</v>
       </c>
+      <c r="I74" s="0">
+        <v>0.00094698123904006341</v>
+      </c>
+      <c r="J74" s="0">
+        <v>8.6214410799739441e-07</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
@@ -2140,6 +2706,12 @@
       <c r="H75" s="0">
         <v>6.1837793446333928e-07</v>
       </c>
+      <c r="I75" s="0">
+        <v>0.00094437175817204105</v>
+      </c>
+      <c r="J75" s="0">
+        <v>7.0893033972730976e-07</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
@@ -2166,6 +2738,12 @@
       <c r="H76" s="0">
         <v>7.7807956714607656e-07</v>
       </c>
+      <c r="I76" s="0">
+        <v>0.00094521016990000979</v>
+      </c>
+      <c r="J76" s="0">
+        <v>8.763396235001353e-07</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
@@ -2192,6 +2770,12 @@
       <c r="H77" s="0">
         <v>1.2030123762090483e-06</v>
       </c>
+      <c r="I77" s="0">
+        <v>0.00095003802600444854</v>
+      </c>
+      <c r="J77" s="0">
+        <v>1.2250871112125319e-06</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
@@ -2218,6 +2802,12 @@
       <c r="H78" s="0">
         <v>8.9793121552110616e-07</v>
       </c>
+      <c r="I78" s="0">
+        <v>0.00094743708369784041</v>
+      </c>
+      <c r="J78" s="0">
+        <v>9.7588007890699694e-07</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -2244,6 +2834,12 @@
       <c r="H79" s="0">
         <v>1.1388300634435203e-06</v>
       </c>
+      <c r="I79" s="0">
+        <v>0.00094910136404590512</v>
+      </c>
+      <c r="J79" s="0">
+        <v>1.1640630212445067e-06</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
@@ -2270,6 +2866,12 @@
       <c r="H80" s="0">
         <v>1.0062484013430828e-06</v>
       </c>
+      <c r="I80" s="0">
+        <v>0.00094803390917076063</v>
+      </c>
+      <c r="J80" s="0">
+        <v>1.0699451243538763e-06</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
@@ -2296,6 +2898,12 @@
       <c r="H81" s="0">
         <v>6.1976686741041082e-07</v>
       </c>
+      <c r="I81" s="0">
+        <v>0.00094459061487316327</v>
+      </c>
+      <c r="J81" s="0">
+        <v>7.0713776680082483e-07</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -2322,6 +2930,12 @@
       <c r="H82" s="0">
         <v>9.6886453454961728e-07</v>
       </c>
+      <c r="I82" s="0">
+        <v>0.00094826259547516479</v>
+      </c>
+      <c r="J82" s="0">
+        <v>1.008357066627625e-06</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -2348,6 +2962,12 @@
       <c r="H83" s="0">
         <v>7.9114844314388411e-07</v>
       </c>
+      <c r="I83" s="0">
+        <v>0.00094575564945379505</v>
+      </c>
+      <c r="J83" s="0">
+        <v>8.8426982992644999e-07</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
@@ -2374,6 +2994,12 @@
       <c r="H84" s="0">
         <v>7.5487710513644274e-07</v>
       </c>
+      <c r="I84" s="0">
+        <v>0.00094643539243747588</v>
+      </c>
+      <c r="J84" s="0">
+        <v>8.2045681317573494e-07</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -2400,6 +3026,12 @@
       <c r="H85" s="0">
         <v>7.982513199082898e-07</v>
       </c>
+      <c r="I85" s="0">
+        <v>0.00094580831001511159</v>
+      </c>
+      <c r="J85" s="0">
+        <v>8.9072655892400166e-07</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
@@ -2426,6 +3058,12 @@
       <c r="H86" s="0">
         <v>1.5023512298858417e-06</v>
       </c>
+      <c r="I86" s="0">
+        <v>0.0009546234513013995</v>
+      </c>
+      <c r="J86" s="0">
+        <v>1.5164561838886856e-06</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -2452,6 +3090,12 @@
       <c r="H87" s="0">
         <v>9.6039026273828216e-07</v>
       </c>
+      <c r="I87" s="0">
+        <v>0.00094760787382077707</v>
+      </c>
+      <c r="J87" s="0">
+        <v>1.0264827699317476e-06</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -2478,6 +3122,12 @@
       <c r="H88" s="0">
         <v>9.1920016908432256e-07</v>
       </c>
+      <c r="I88" s="0">
+        <v>0.00094763297344124678</v>
+      </c>
+      <c r="J88" s="0">
+        <v>9.9561169602243273e-07</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -2504,6 +3154,12 @@
       <c r="H89" s="0">
         <v>7.7536124737767172e-07</v>
       </c>
+      <c r="I89" s="0">
+        <v>0.00094537359461914201</v>
+      </c>
+      <c r="J89" s="0">
+        <v>8.3516284142070353e-07</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
@@ -2530,6 +3186,12 @@
       <c r="H90" s="0">
         <v>9.4056392435367537e-07</v>
       </c>
+      <c r="I90" s="0">
+        <v>0.0009468251164339599</v>
+      </c>
+      <c r="J90" s="0">
+        <v>1.011630596734101e-06</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
@@ -2556,6 +3218,12 @@
       <c r="H91" s="0">
         <v>1.2462966157867498e-06</v>
       </c>
+      <c r="I91" s="0">
+        <v>0.00095163172681691881</v>
+      </c>
+      <c r="J91" s="0">
+        <v>1.2661517461219631e-06</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
@@ -2582,6 +3250,12 @@
       <c r="H92" s="0">
         <v>1.283202299639212e-06</v>
       </c>
+      <c r="I92" s="0">
+        <v>0.00095223501200521709</v>
+      </c>
+      <c r="J92" s="0">
+        <v>1.3024479779732664e-06</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
@@ -2608,6 +3282,12 @@
       <c r="H93" s="0">
         <v>1.573321247569479e-06</v>
       </c>
+      <c r="I93" s="0">
+        <v>0.00095643506463194026</v>
+      </c>
+      <c r="J93" s="0">
+        <v>1.5875676330519867e-06</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -2634,6 +3314,12 @@
       <c r="H94" s="0">
         <v>8.9714974419037741e-07</v>
       </c>
+      <c r="I94" s="0">
+        <v>0.00094632796162003063</v>
+      </c>
+      <c r="J94" s="0">
+        <v>9.4140827813300435e-07</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -2660,6 +3346,12 @@
       <c r="H95" s="0">
         <v>1.0347167567750165e-06</v>
       </c>
+      <c r="I95" s="0">
+        <v>0.00094825987798529906</v>
+      </c>
+      <c r="J95" s="0">
+        <v>1.066292163931813e-06</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
@@ -2686,6 +3378,12 @@
       <c r="H96" s="0">
         <v>1.0513669348987307e-06</v>
       </c>
+      <c r="I96" s="0">
+        <v>0.00094843049448754032</v>
+      </c>
+      <c r="J96" s="0">
+        <v>1.0825122748390156e-06</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
@@ -2712,6 +3410,12 @@
       <c r="H97" s="0">
         <v>1.4691083968442407e-06</v>
       </c>
+      <c r="I97" s="0">
+        <v>0.00095483920685944317</v>
+      </c>
+      <c r="J97" s="0">
+        <v>1.4835856226143712e-06</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
@@ -2738,6 +3442,12 @@
       <c r="H98" s="0">
         <v>1.6697751298149058e-06</v>
       </c>
+      <c r="I98" s="0">
+        <v>0.00095791559460084452</v>
+      </c>
+      <c r="J98" s="0">
+        <v>1.6842236828327543e-06</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
@@ -2764,6 +3474,12 @@
       <c r="H99" s="0">
         <v>7.3393189644320878e-07</v>
       </c>
+      <c r="I99" s="0">
+        <v>0.00094630807777220109</v>
+      </c>
+      <c r="J99" s="0">
+        <v>8.0089380489703944e-07</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -2790,6 +3506,12 @@
       <c r="H100" s="0">
         <v>9.2333251752603215e-07</v>
       </c>
+      <c r="I100" s="0">
+        <v>0.0009466470409841436</v>
+      </c>
+      <c r="J100" s="0">
+        <v>9.6628019160960855e-07</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
@@ -2816,6 +3538,12 @@
       <c r="H101" s="0">
         <v>8.0887468673416885e-07</v>
       </c>
+      <c r="I101" s="0">
+        <v>0.00094569480140025547</v>
+      </c>
+      <c r="J101" s="0">
+        <v>9.0201448807641671e-07</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Simulations/Results/state_perturbation/state_perturbation.xlsx
+++ b/Simulations/Results/state_perturbation/state_perturbation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -39,100 +39,10 @@
     <t>dv_h (m/s)</t>
   </si>
   <si>
-    <t>id</t>
+    <t>delta_rho (m)</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
+    <t>delta_rhodot (m/s)</t>
   </si>
   <si>
     <t>id</t>
@@ -162,97 +72,7 @@
     <t>delta_rho (m)</t>
   </si>
   <si>
-    <t>delta_rhodot (m)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>delta_rho (m)</t>
-  </si>
-  <si>
-    <t>delta_rhodot (m)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>delta_rho (m)</t>
-  </si>
-  <si>
-    <t>delta_rhodot (m)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>dr (m)</t>
-  </si>
-  <si>
-    <t>dtheta (m)</t>
-  </si>
-  <si>
-    <t>dh (m)</t>
-  </si>
-  <si>
-    <t>dv_r (m/s)</t>
-  </si>
-  <si>
-    <t>dv_theta (m/s)</t>
-  </si>
-  <si>
-    <t>dv_h (m/s)</t>
-  </si>
-  <si>
-    <t>delta_rho (m)</t>
-  </si>
-  <si>
-    <t>delta_rhodot (m)</t>
+    <t>delta_rhodot (m/s)</t>
   </si>
 </sst>
 </file>
@@ -304,45 +124,45 @@
     <col min="1" max="1" width="3.15625" customWidth="true"/>
     <col min="2" max="2" width="6.046875" customWidth="true"/>
     <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="15.37890625" customWidth="true"/>
+    <col min="4" max="4" width="15.37890625" customWidth="true"/>
+    <col min="5" max="5" width="15.37890625" customWidth="true"/>
+    <col min="6" max="6" width="16.046875" customWidth="true"/>
     <col min="7" max="7" width="16.046875" customWidth="true"/>
     <col min="8" max="8" width="15.37890625" customWidth="true"/>
     <col min="9" max="9" width="15.7109375" customWidth="true"/>
-    <col min="10" max="10" width="15.37890625" customWidth="true"/>
+    <col min="10" max="10" width="16.48828125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -353,28 +173,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.00094089989403389751</v>
+        <v>0.0009399085345327407</v>
       </c>
       <c r="D2" s="0">
-        <v>6.9360168071297412e-05</v>
+        <v>9.0230424793502628e-05</v>
       </c>
       <c r="E2" s="0">
-        <v>8.2583319166817384e-05</v>
+        <v>3.1829903166310121e-05</v>
       </c>
       <c r="F2" s="0">
-        <v>7.6412520193247513e-08</v>
+        <v>1.9786762105872269e-07</v>
       </c>
       <c r="G2" s="0">
-        <v>-2.8590901526241025e-07</v>
+        <v>-6.8063837502761737e-08</v>
       </c>
       <c r="H2" s="0">
-        <v>8.2672129295904692e-07</v>
+        <v>3.1863828741180156e-07</v>
       </c>
       <c r="I2" s="0">
-        <v>0.00094706042474199429</v>
+        <v>0.00094476596339065726</v>
       </c>
       <c r="J2" s="0">
-        <v>8.7809506004901481e-07</v>
+        <v>3.8120157350641473e-07</v>
       </c>
     </row>
     <row r="3">
@@ -385,28 +205,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>0.00093957812782985428</v>
+        <v>0.00094016475356539786</v>
       </c>
       <c r="D3" s="0">
-        <v>6.865123634325343e-05</v>
+        <v>6.4901194122890526e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>8.0354132034200464e-05</v>
+        <v>1.3219848687057527e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>7.0363289486619074e-08</v>
+        <v>5.3265055317830434e-08</v>
       </c>
       <c r="G3" s="0">
-        <v>-2.9405278889702707e-07</v>
+        <v>-3.3267188727240452e-07</v>
       </c>
       <c r="H3" s="0">
-        <v>8.0440062202438228e-07</v>
+        <v>1.3234022587471907e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00094550348337945375</v>
+        <v>0.00094249493008958466</v>
       </c>
       <c r="J3" s="0">
-        <v>8.5934765716717376e-07</v>
+        <v>3.6196917836186914e-07</v>
       </c>
     </row>
     <row r="4">
@@ -417,28 +237,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00093926149426604155</v>
+        <v>0.0009390239142339496</v>
       </c>
       <c r="D4" s="0">
-        <v>7.736834981608709e-05</v>
+        <v>9.4000365057633761e-05</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00012040785557650556</v>
+        <v>3.2535258938879703e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>1.1610569319170372e-07</v>
+        <v>2.2107077578964462e-07</v>
       </c>
       <c r="G4" s="0">
-        <v>-2.0005393317314504e-07</v>
+        <v>-2.749695886695297e-08</v>
       </c>
       <c r="H4" s="0">
-        <v>1.2053722385342411e-06</v>
+        <v>3.2569928495980777e-07</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00095010318800047933</v>
+        <v>0.00094427777862683834</v>
       </c>
       <c r="J4" s="0">
-        <v>1.2273647956490436e-06</v>
+        <v>3.9459903050881447e-07</v>
       </c>
     </row>
     <row r="5">
@@ -449,28 +269,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00093919235249995126</v>
+        <v>0.00094090682405223447</v>
       </c>
       <c r="D5" s="0">
-        <v>7.6212358282590209e-05</v>
+        <v>6.9904794228248246e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00011618013628756248</v>
+        <v>1.8441741375398072e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>1.1284902309838252e-07</v>
+        <v>7.9356681073616819e-08</v>
       </c>
       <c r="G5" s="0">
-        <v>-2.1305939992008818e-07</v>
+        <v>-2.8123226876669918e-07</v>
       </c>
       <c r="H5" s="0">
-        <v>1.1630465703438184e-06</v>
+        <v>1.8461533897585543e-07</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00094941477901767631</v>
+        <v>0.00094368025815374211</v>
       </c>
       <c r="J5" s="0">
-        <v>1.1877737725245012e-06</v>
+        <v>3.4564706741393693e-07</v>
       </c>
     </row>
     <row r="6">
@@ -481,28 +301,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00094041120260701661</v>
+        <v>0.00094087357588268361</v>
       </c>
       <c r="D6" s="0">
-        <v>5.8640959841815832e-05</v>
+        <v>6.9872936089232507e-05</v>
       </c>
       <c r="E6" s="0">
-        <v>7.9855369610402519e-05</v>
+        <v>1.8170362313360358e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>2.311900698659386e-08</v>
+        <v>7.9013694739837881e-08</v>
       </c>
       <c r="G6" s="0">
-        <v>-3.984127731125435e-07</v>
+        <v>-2.815409825460656e-07</v>
       </c>
       <c r="H6" s="0">
-        <v>7.9940913540928571e-07</v>
+        <v>1.8189864108068418e-07</v>
       </c>
       <c r="I6" s="0">
-        <v>0.00094561560489215635</v>
+        <v>0.00094363948362634592</v>
       </c>
       <c r="J6" s="0">
-        <v>8.9348877555294167e-07</v>
+        <v>3.4437712530951279e-07</v>
       </c>
     </row>
     <row r="7">
@@ -513,28 +333,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00093963954925246895</v>
+        <v>0.00093964482443542607</v>
       </c>
       <c r="D7" s="0">
-        <v>7.8219239535881613e-05</v>
+        <v>6.6821602647260114e-05</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00012171376350586421</v>
+        <v>1.3987596389038952e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>1.276110879605552e-07</v>
+        <v>6.304053944139465e-08</v>
       </c>
       <c r="G7" s="0">
-        <v>-1.9156684115959402e-07</v>
+        <v>-3.109204665414228e-07</v>
       </c>
       <c r="H7" s="0">
-        <v>1.2184435555035545e-06</v>
+        <v>1.4002843734222843e-07</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00095071287578307056</v>
+        <v>0.00094212163520501627</v>
       </c>
       <c r="J7" s="0">
-        <v>1.2399948154530668e-06</v>
+        <v>3.4677602193909606e-07</v>
       </c>
     </row>
     <row r="8">
@@ -545,28 +365,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0009397177817751512</v>
+        <v>0.00093995138801972189</v>
       </c>
       <c r="D8" s="0">
-        <v>6.7484171308251906e-05</v>
+        <v>6.6383808038694703e-05</v>
       </c>
       <c r="E8" s="0">
-        <v>7.6199992854904174e-05</v>
+        <v>1.3727677487372269e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>6.5255823175625061e-08</v>
+        <v>5.7956692896266038e-08</v>
       </c>
       <c r="G8" s="0">
-        <v>-3.0395423686975162e-07</v>
+        <v>-3.1815157637733738e-07</v>
       </c>
       <c r="H8" s="0">
-        <v>7.628204213029265e-07</v>
+        <v>1.374220058733813e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00094521429404800035</v>
+        <v>0.00094239263098727449</v>
       </c>
       <c r="J8" s="0">
-        <v>8.237363022995744e-07</v>
+        <v>3.5137474511000428e-07</v>
       </c>
     </row>
     <row r="9">
@@ -577,28 +397,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>0.00093922630829457177</v>
+        <v>0.00094055050450769784</v>
       </c>
       <c r="D9" s="0">
-        <v>7.7347500783142564e-05</v>
+        <v>7.4082541718867301e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00011644058563495016</v>
+        <v>2.2094832542065248e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>1.1576752829284276e-07</v>
+        <v>9.7110078693674051e-08</v>
       </c>
       <c r="G9" s="0">
-        <v>-2.0026246317890808e-07</v>
+        <v>-2.3589291440334614e-07</v>
       </c>
       <c r="H9" s="0">
-        <v>1.1656567583606378e-06</v>
+        <v>2.2118939382771113e-07</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00094957206364396508</v>
+        <v>0.00094372223463383257</v>
       </c>
       <c r="J9" s="0">
-        <v>1.18838665975235e-06</v>
+        <v>3.3763972276890977e-07</v>
       </c>
     </row>
     <row r="10">
@@ -609,28 +429,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>0.00093966240577714188</v>
+        <v>0.00094056441798961998</v>
       </c>
       <c r="D10" s="0">
-        <v>7.5023008724139917e-05</v>
+        <v>7.3073271690704544e-05</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0001107519468076311</v>
+        <v>2.1193218092275015e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>1.0464239834362399e-07</v>
+        <v>9.4734588257372465e-08</v>
       </c>
       <c r="G10" s="0">
-        <v>-2.2705558992523744e-07</v>
+        <v>-2.4746430218750351e-07</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1087047557401432e-06</v>
+        <v>2.1216059334029707e-07</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00094913638766543388</v>
+        <v>0.00094363673090699625</v>
       </c>
       <c r="J10" s="0">
-        <v>1.1365432274437316e-06</v>
+        <v>3.3944858290461142e-07</v>
       </c>
     </row>
     <row r="11">
@@ -641,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00093860645253229791</v>
+        <v>0.00094036384789752958</v>
       </c>
       <c r="D11" s="0">
-        <v>9.3292122555987955e-05</v>
+        <v>5.5493503880732487e-05</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00015947463088904681</v>
+        <v>1.4297138074938821e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>2.1668517921624719e-07</v>
+        <v>6.2192553260120853e-09</v>
       </c>
       <c r="G11" s="0">
-        <v>-3.4449801191403784e-08</v>
+        <v>-4.3118521853664424e-07</v>
       </c>
       <c r="H11" s="0">
-        <v>1.5964494352132879e-06</v>
+        <v>1.4312399223512674e-07</v>
       </c>
       <c r="I11" s="0">
-        <v>0.00095661781854796324</v>
+        <v>0.00094210832899552634</v>
       </c>
       <c r="J11" s="0">
-        <v>1.6114558805275838e-06</v>
+        <v>4.5436092368801301e-07</v>
       </c>
     </row>
     <row r="12">
@@ -673,28 +493,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="0">
-        <v>0.00094039654233046832</v>
+        <v>0.00093930262244601437</v>
       </c>
       <c r="D12" s="0">
-        <v>5.8621620212584435e-05</v>
+        <v>7.4673509534217697e-05</v>
       </c>
       <c r="E12" s="0">
-        <v>7.8114760713279089e-05</v>
+        <v>2.2259748925461623e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>2.2964182652684961e-08</v>
+        <v>1.0768364745034065e-07</v>
       </c>
       <c r="G12" s="0">
-        <v>-3.9859954526714342e-07</v>
+        <v>-2.2822406138501769e-07</v>
       </c>
       <c r="H12" s="0">
-        <v>7.8198439341686157e-07</v>
+        <v>2.2283892789564052e-07</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00094545442355765713</v>
+        <v>0.00094252906903837257</v>
       </c>
       <c r="J12" s="0">
-        <v>8.7801397638056786e-07</v>
+        <v>3.3665884498845424e-07</v>
       </c>
     </row>
     <row r="13">
@@ -705,28 +525,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00094090526146750619</v>
+        <v>0.00094020954893725417</v>
       </c>
       <c r="D13" s="0">
-        <v>6.9316142546849147e-05</v>
+        <v>6.5448877946794326e-05</v>
       </c>
       <c r="E13" s="0">
-        <v>8.6051737777390348e-05</v>
+        <v>1.3084030350112931e-05</v>
       </c>
       <c r="F13" s="0">
-        <v>7.6436456435124978e-08</v>
+        <v>5.4103693518381402e-08</v>
       </c>
       <c r="G13" s="0">
-        <v>-2.8634331994317058e-07</v>
+        <v>-3.2575103612111911e-07</v>
       </c>
       <c r="H13" s="0">
-        <v>8.6144290690374352e-07</v>
+        <v>1.3098384806349744e-07</v>
       </c>
       <c r="I13" s="0">
-        <v>0.00094737127898692397</v>
+        <v>0.00094257559027777292</v>
       </c>
       <c r="J13" s="0">
-        <v>9.1099885323923843e-07</v>
+        <v>3.5524317817494395e-07</v>
       </c>
     </row>
     <row r="14">
@@ -737,28 +557,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>0.00094036496524996238</v>
+        <v>0.00094039023442871184</v>
       </c>
       <c r="D14" s="0">
-        <v>6.4273753561217006e-05</v>
+        <v>7.3772898850299473e-05</v>
       </c>
       <c r="E14" s="0">
-        <v>6.3339158245419655e-05</v>
+        <v>2.0701756338741471e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>5.0248239930050786e-08</v>
+        <v>9.5428686147647213e-08</v>
       </c>
       <c r="G14" s="0">
-        <v>-3.3702332985496852e-07</v>
+        <v>-2.389536038188006e-07</v>
       </c>
       <c r="H14" s="0">
-        <v>6.3407680496879131e-07</v>
+        <v>2.0724340164879629e-07</v>
       </c>
       <c r="I14" s="0">
-        <v>0.00094468472636835262</v>
+        <v>0.00094350664879966416</v>
       </c>
       <c r="J14" s="0">
-        <v>7.1983540138147522e-07</v>
+        <v>3.3038657122350292e-07</v>
       </c>
     </row>
     <row r="15">
@@ -769,28 +589,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00094096989282910215</v>
+        <v>0.00093964382617084397</v>
       </c>
       <c r="D15" s="0">
-        <v>6.9415515383863813e-05</v>
+        <v>7.2082894244374085e-05</v>
       </c>
       <c r="E15" s="0">
-        <v>8.6359036334726194e-05</v>
+        <v>2.0184960670425861e-05</v>
       </c>
       <c r="F15" s="0">
-        <v>7.712031927648022e-08</v>
+        <v>8.8098079040199728e-08</v>
       </c>
       <c r="G15" s="0">
-        <v>-2.853675940784825e-07</v>
+        <v>-2.577613999864975e-07</v>
       </c>
       <c r="H15" s="0">
-        <v>8.6451907093264752e-07</v>
+        <v>2.0206510288353523e-07</v>
       </c>
       <c r="I15" s="0">
-        <v>0.00094747070463602299</v>
+        <v>0.00094262075955332933</v>
       </c>
       <c r="J15" s="0">
-        <v>9.1366045739196561e-07</v>
+        <v>3.3916443896273397e-07</v>
       </c>
     </row>
     <row r="16">
@@ -801,28 +621,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0009403393787854597</v>
+        <v>0.00093886736110171398</v>
       </c>
       <c r="D16" s="0">
-        <v>6.4188970090583997e-05</v>
+        <v>9.3835834423350306e-05</v>
       </c>
       <c r="E16" s="0">
-        <v>6.4901820954311822e-05</v>
+        <v>3.2919532771078733e-05</v>
       </c>
       <c r="F16" s="0">
-        <v>4.9943389111850589e-08</v>
+        <v>2.19471614243405e-07</v>
       </c>
       <c r="G16" s="0">
-        <v>-3.37854650101551e-07</v>
+        <v>-2.9094567247610337e-08</v>
       </c>
       <c r="H16" s="0">
-        <v>6.4972055090748898e-07</v>
+        <v>3.2954610487846749e-07</v>
       </c>
       <c r="I16" s="0">
-        <v>0.0009447595554103169</v>
+        <v>0.00094411905033310746</v>
       </c>
       <c r="J16" s="0">
-        <v>7.3401423758858388e-07</v>
+        <v>3.9700745401377742e-07</v>
       </c>
     </row>
     <row r="17">
@@ -833,28 +653,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00094070725349215678</v>
+        <v>0.00094038528184370307</v>
       </c>
       <c r="D17" s="0">
-        <v>5.9240284111639063e-05</v>
+        <v>5.5533591728995635e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>8.7189341483833447e-05</v>
+        <v>1.3864797247052939e-05</v>
       </c>
       <c r="F17" s="0">
-        <v>2.6290747988377827e-08</v>
+        <v>6.4447224362718103e-09</v>
       </c>
       <c r="G17" s="0">
-        <v>-3.9251409454177724e-07</v>
+        <v>-4.3078841796854658e-07</v>
       </c>
       <c r="H17" s="0">
-        <v>8.7282747556052264e-07</v>
+        <v>1.3879595359453225e-07</v>
       </c>
       <c r="I17" s="0">
-        <v>0.00094659470170858722</v>
+        <v>0.0009421256236411817</v>
       </c>
       <c r="J17" s="0">
-        <v>9.5738514712580234e-07</v>
+        <v>4.526417040412199e-07</v>
       </c>
     </row>
     <row r="18">
@@ -865,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>0.00094057509177591925</v>
+        <v>0.00093975896922326996</v>
       </c>
       <c r="D18" s="0">
-        <v>5.898801387715924e-05</v>
+        <v>6.7039427516402128e-05</v>
       </c>
       <c r="E18" s="0">
-        <v>8.1946310041658394e-05</v>
+        <v>1.5180682478686576e-05</v>
       </c>
       <c r="F18" s="0">
-        <v>2.4882766506972853e-08</v>
+        <v>6.4235957823732814e-08</v>
       </c>
       <c r="G18" s="0">
-        <v>-3.9499196059040662e-07</v>
+        <v>-3.0876727570268783e-07</v>
       </c>
       <c r="H18" s="0">
-        <v>8.2034094596902315e-07</v>
+        <v>1.5197233132784459e-07</v>
       </c>
       <c r="I18" s="0">
-        <v>0.00094597900969307686</v>
+        <v>0.00094226941911420875</v>
       </c>
       <c r="J18" s="0">
-        <v>9.1082219375322951e-07</v>
+        <v>3.5008438741482343e-07</v>
       </c>
     </row>
     <row r="19">
@@ -897,28 +717,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0009405934421122808</v>
+        <v>0.00094117032860197014</v>
       </c>
       <c r="D19" s="0">
-        <v>5.9045861417306167e-05</v>
+        <v>6.2868942709015663e-05</v>
       </c>
       <c r="E19" s="0">
-        <v>8.0701229995449876e-05</v>
+        <v>1.0997726205235361e-05</v>
       </c>
       <c r="F19" s="0">
-        <v>2.5073276017917312e-08</v>
+        <v>4.2432363990541067e-08</v>
       </c>
       <c r="G19" s="0">
-        <v>-3.944176115173309e-07</v>
+        <v>-3.5260031778366896e-07</v>
       </c>
       <c r="H19" s="0">
-        <v>8.0787686466750131e-07</v>
+        <v>1.1010089419329297e-07</v>
       </c>
       <c r="I19" s="0">
-        <v>0.00094589382364931363</v>
+        <v>0.00094333188294458447</v>
       </c>
       <c r="J19" s="0">
-        <v>8.9936585987589004e-07</v>
+        <v>3.7181944074662475e-07</v>
       </c>
     </row>
     <row r="20">
@@ -929,28 +749,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00093944703077752933</v>
+        <v>0.00093974609732594416</v>
       </c>
       <c r="D20" s="0">
-        <v>7.0299365097170607e-05</v>
+        <v>6.6976317987799128e-05</v>
       </c>
       <c r="E20" s="0">
-        <v>8.9362209552322247e-05</v>
+        <v>1.5033776166896332e-05</v>
       </c>
       <c r="F20" s="0">
-        <v>7.9632754723668597e-08</v>
+        <v>6.4092599505460868e-08</v>
       </c>
       <c r="G20" s="0">
-        <v>-2.7390186987811052e-07</v>
+        <v>-3.0939393462362311e-07</v>
       </c>
       <c r="H20" s="0">
-        <v>8.9458465729335378e-07</v>
+        <v>1.5050157552989825e-07</v>
       </c>
       <c r="I20" s="0">
-        <v>0.00094630245105138276</v>
+        <v>0.00094224973814609366</v>
       </c>
       <c r="J20" s="0">
-        <v>9.389597004197105e-07</v>
+        <v>3.4997598821952894e-07</v>
       </c>
     </row>
     <row r="21">
@@ -961,28 +781,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>0.000940178490237642</v>
+        <v>0.00094120598858982163</v>
       </c>
       <c r="D21" s="0">
-        <v>6.4119829425612895e-05</v>
+        <v>6.2934394125246929e-05</v>
       </c>
       <c r="E21" s="0">
-        <v>5.8204037280245677e-05</v>
+        <v>1.157960094345046e-05</v>
       </c>
       <c r="F21" s="0">
-        <v>4.5820424364462209e-08</v>
+        <v>4.2787573976965643e-08</v>
       </c>
       <c r="G21" s="0">
-        <v>-3.4295001947104095e-07</v>
+        <v>-3.5194642353632635e-07</v>
       </c>
       <c r="H21" s="0">
-        <v>5.8265978146433918e-07</v>
+        <v>1.1592624981853961e-07</v>
       </c>
       <c r="I21" s="0">
-        <v>0.00094415817318223847</v>
+        <v>0.00094337878822838971</v>
       </c>
       <c r="J21" s="0">
-        <v>6.7764787912322002e-07</v>
+        <v>3.730093255185934e-07</v>
       </c>
     </row>
     <row r="22">
@@ -993,28 +813,28 @@
         <v>1</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0009409370085480262</v>
+        <v>0.00094073751499834657</v>
       </c>
       <c r="D22" s="0">
-        <v>7.0299021036279719e-05</v>
+        <v>5.3083361416239594e-05</v>
       </c>
       <c r="E22" s="0">
-        <v>8.9282845456295336e-05</v>
+        <v>1.5512853760616162e-05</v>
       </c>
       <c r="F22" s="0">
-        <v>7.911644723385125e-08</v>
+        <v>-6.2170171510889105e-09</v>
       </c>
       <c r="G22" s="0">
-        <v>-2.7565091348684054e-07</v>
+        <v>-4.5671307697357777e-07</v>
       </c>
       <c r="H22" s="0">
-        <v>8.9379057446389943e-07</v>
+        <v>1.5529444337652796e-07</v>
       </c>
       <c r="I22" s="0">
-        <v>0.00094777414657013111</v>
+        <v>0.00094236169490080071</v>
       </c>
       <c r="J22" s="0">
-        <v>9.386716301931916e-07</v>
+        <v>4.8243325976196519e-07</v>
       </c>
     </row>
     <row r="23">
@@ -1025,28 +845,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="0">
-        <v>0.00094128754413080884</v>
+        <v>0.00094133273002316997</v>
       </c>
       <c r="D23" s="0">
-        <v>6.0484060782128868e-05</v>
+        <v>5.433810966343211e-05</v>
       </c>
       <c r="E23" s="0">
-        <v>9.3150239468034704e-05</v>
+        <v>1.4453630776694556e-05</v>
       </c>
       <c r="F23" s="0">
-        <v>3.2489457194029292e-08</v>
+        <v>1.3425888872875547e-10</v>
       </c>
       <c r="G23" s="0">
-        <v>-3.8025165834598348e-07</v>
+        <v>-4.4433354802909247e-07</v>
       </c>
       <c r="H23" s="0">
-        <v>9.3250055832649709e-07</v>
+        <v>1.4469075805575147e-07</v>
       </c>
       <c r="I23" s="0">
-        <v>0.00094781724475631796</v>
+        <v>0.00094301052285608057</v>
       </c>
       <c r="J23" s="0">
-        <v>1.0075734116097258e-06</v>
+        <v>4.6729833660769543e-07</v>
       </c>
     </row>
     <row r="24">
@@ -1057,28 +877,28 @@
         <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>0.00094084112292591726</v>
+        <v>0.00094147392817856002</v>
       </c>
       <c r="D24" s="0">
-        <v>5.9568527787157155e-05</v>
+        <v>5.465656237357841e-05</v>
       </c>
       <c r="E24" s="0">
-        <v>8.5099929791234341e-05</v>
+        <v>1.3998516323507692e-05</v>
       </c>
       <c r="F24" s="0">
-        <v>2.7721042294981402e-08</v>
+        <v>1.6440822869778771e-09</v>
       </c>
       <c r="G24" s="0">
-        <v>-3.8926815314850247e-07</v>
+        <v>-4.4118890983298534e-07</v>
       </c>
       <c r="H24" s="0">
-        <v>8.5191109598660752e-07</v>
+        <v>1.4013476094990286e-07</v>
       </c>
       <c r="I24" s="0">
-        <v>0.00094655820008159204</v>
+        <v>0.00094316300590604422</v>
       </c>
       <c r="J24" s="0">
-        <v>9.37043577805573e-07</v>
+        <v>4.6291263581011791e-07</v>
       </c>
     </row>
     <row r="25">
@@ -1089,28 +909,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00094088827217841953</v>
+        <v>0.00093973289730975296</v>
       </c>
       <c r="D25" s="0">
-        <v>6.9319141991430744e-05</v>
+        <v>6.7885362402819727e-05</v>
       </c>
       <c r="E25" s="0">
-        <v>8.4216149701794683e-05</v>
+        <v>1.5678279489407547e-05</v>
       </c>
       <c r="F25" s="0">
-        <v>7.6273759724854173e-08</v>
+        <v>6.6298042555867909e-08</v>
       </c>
       <c r="G25" s="0">
-        <v>-2.8631239213077614e-07</v>
+        <v>-2.9942207973188834e-07</v>
       </c>
       <c r="H25" s="0">
-        <v>8.4306725742333907e-07</v>
+        <v>1.5695521362059536e-07</v>
       </c>
       <c r="I25" s="0">
-        <v>0.00094718965579228894</v>
+        <v>0.00094231212937247752</v>
       </c>
       <c r="J25" s="0">
-        <v>8.9361897520672804e-07</v>
+        <v>3.44505372034161e-07</v>
       </c>
     </row>
     <row r="26">
@@ -1121,28 +941,28 @@
         <v>1</v>
       </c>
       <c r="C26" s="0">
-        <v>0.00094137506209790445</v>
+        <v>0.00094098775775197652</v>
       </c>
       <c r="D26" s="0">
-        <v>5.7493020288179597e-05</v>
+        <v>6.2698033266750386e-05</v>
       </c>
       <c r="E26" s="0">
-        <v>7.2571229491438419e-05</v>
+        <v>9.7844954794382772e-06</v>
       </c>
       <c r="F26" s="0">
-        <v>1.6984245419793265e-08</v>
+        <v>3.8049639251858114e-08</v>
       </c>
       <c r="G26" s="0">
-        <v>-4.1147484952479274e-07</v>
+        <v>-3.5872692479704815e-07</v>
       </c>
       <c r="H26" s="0">
-        <v>7.2648987780260127e-07</v>
+        <v>9.7945607946421053e-08</v>
       </c>
       <c r="I26" s="0">
-        <v>0.00094591703561760078</v>
+        <v>0.00094312498639703007</v>
       </c>
       <c r="J26" s="0">
-        <v>8.3509733500566816e-07</v>
+        <v>3.73799576962759e-07</v>
       </c>
     </row>
     <row r="27">
@@ -1153,28 +973,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="0">
-        <v>0.00093971161332628839</v>
+        <v>0.0009397409938429746</v>
       </c>
       <c r="D27" s="0">
-        <v>6.7460669929020334e-05</v>
+        <v>6.7927179092652779e-05</v>
       </c>
       <c r="E27" s="0">
-        <v>7.698924053197657e-05</v>
+        <v>1.5819783276843653e-05</v>
       </c>
       <c r="F27" s="0">
-        <v>6.5181070534048313e-08</v>
+        <v>6.6386236459436976e-08</v>
       </c>
       <c r="G27" s="0">
-        <v>-3.0418516201247484e-07</v>
+        <v>-2.9900680883262337e-07</v>
       </c>
       <c r="H27" s="0">
-        <v>7.7072145189873793e-07</v>
+        <v>1.5837190277080464e-07</v>
       </c>
       <c r="I27" s="0">
-        <v>0.00094527043821610046</v>
+        <v>0.00094232558211660225</v>
       </c>
       <c r="J27" s="0">
-        <v>8.3113701708046834e-07</v>
+        <v>3.4480989502443581e-07</v>
       </c>
     </row>
     <row r="28">
@@ -1185,28 +1005,28 @@
         <v>1</v>
       </c>
       <c r="C28" s="0">
-        <v>0.00094018381845462073</v>
+        <v>0.00094165791657463416</v>
       </c>
       <c r="D28" s="0">
-        <v>6.1321611250164665e-05</v>
+        <v>5.5107126635534076e-05</v>
       </c>
       <c r="E28" s="0">
-        <v>9.546901788138774e-05</v>
+        <v>1.7319979375738167e-05</v>
       </c>
       <c r="F28" s="0">
-        <v>3.7139112951667386e-08</v>
+        <v>3.6391378591127399e-09</v>
       </c>
       <c r="G28" s="0">
-        <v>-3.7024559384818065e-07</v>
+        <v>-4.367517780897931e-07</v>
       </c>
       <c r="H28" s="0">
-        <v>9.5571290283659223e-07</v>
+        <v>1.7338507665793583e-07</v>
       </c>
       <c r="I28" s="0">
-        <v>0.00094700595872753844</v>
+        <v>0.00094342800940998219</v>
       </c>
       <c r="J28" s="0">
-        <v>1.0255965415908803e-06</v>
+        <v>4.6992312541162706e-07</v>
       </c>
     </row>
     <row r="29">
@@ -1217,28 +1037,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="0">
-        <v>0.00094107805977028391</v>
+        <v>0.00094093328307476298</v>
       </c>
       <c r="D29" s="0">
-        <v>6.6728108696567645e-05</v>
+        <v>5.3522267063954576e-05</v>
       </c>
       <c r="E29" s="0">
-        <v>7.3454695774243306e-05</v>
+        <v>1.4758926152652501e-05</v>
       </c>
       <c r="F29" s="0">
-        <v>6.2986994016356324e-08</v>
+        <v>-4.1290322064235774e-09</v>
       </c>
       <c r="G29" s="0">
-        <v>-3.1466951694227724e-07</v>
+        <v>-4.5237920793779821e-07</v>
       </c>
       <c r="H29" s="0">
-        <v>7.353345613365375e-07</v>
+        <v>1.4774714635438192e-07</v>
       </c>
       <c r="I29" s="0">
-        <v>0.00094629601468172188</v>
+        <v>0.00094256983941281333</v>
       </c>
       <c r="J29" s="0">
-        <v>8.0230990483970755e-07</v>
+        <v>4.7591303400648157e-07</v>
       </c>
     </row>
     <row r="30">
@@ -1249,28 +1069,28 @@
         <v>1</v>
       </c>
       <c r="C30" s="0">
-        <v>0.00093973483619169684</v>
+        <v>0.0009397045257193426</v>
       </c>
       <c r="D30" s="0">
-        <v>7.8324497474191457e-05</v>
+        <v>6.6946697912961817e-05</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00012387156848342608</v>
+        <v>1.4615563601032231e-05</v>
       </c>
       <c r="F30" s="0">
-        <v>1.2859648219204489e-07</v>
+        <v>6.3668183322707073e-08</v>
       </c>
       <c r="G30" s="0">
-        <v>-1.9053828846041926e-07</v>
+        <v>-3.0968304611921765e-07</v>
       </c>
       <c r="H30" s="0">
-        <v>1.2400446933363562e-06</v>
+        <v>1.4631499468716488e-07</v>
       </c>
       <c r="I30" s="0">
-        <v>0.00095109434586446997</v>
+        <v>0.00094219959176293413</v>
       </c>
       <c r="J30" s="0">
-        <v>1.2611711763568229e-06</v>
+        <v>3.4837523489995151e-07</v>
       </c>
     </row>
     <row r="31">
@@ -1281,28 +1101,28 @@
         <v>1</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00094064556980377745</v>
+        <v>0.000940950111854022</v>
       </c>
       <c r="D31" s="0">
-        <v>6.5649762318154004e-05</v>
+        <v>5.6762895376372136e-05</v>
       </c>
       <c r="E31" s="0">
-        <v>6.8585170675838583e-05</v>
+        <v>1.3181443159978445e-05</v>
       </c>
       <c r="F31" s="0">
-        <v>5.4344648753312796e-08</v>
+        <v>1.2505621524439015e-08</v>
       </c>
       <c r="G31" s="0">
-        <v>-3.2959651299424922e-07</v>
+        <v>-4.1865477089621586e-07</v>
       </c>
       <c r="H31" s="0">
-        <v>6.8657603523357401e-07</v>
+        <v>1.3195484447429529e-07</v>
       </c>
       <c r="I31" s="0">
-        <v>0.00094542472197448762</v>
+        <v>0.00094275282536483826</v>
       </c>
       <c r="J31" s="0">
-        <v>7.6352724534435777e-07</v>
+        <v>4.3913584315574941e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1313,28 +1133,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="0">
-        <v>0.00094082521087646143</v>
+        <v>0.00094023705506529609</v>
       </c>
       <c r="D32" s="0">
-        <v>5.9534549594342234e-05</v>
+        <v>6.5504996436038798e-05</v>
       </c>
       <c r="E32" s="0">
-        <v>8.4860328491538045e-05</v>
+        <v>1.3377142109901547e-05</v>
       </c>
       <c r="F32" s="0">
-        <v>2.7551588524521442e-08</v>
+        <v>5.439110705579564e-08</v>
       </c>
       <c r="G32" s="0">
-        <v>-3.8960288628380954e-07</v>
+        <v>-3.2519533744914536e-07</v>
       </c>
       <c r="H32" s="0">
-        <v>8.4951249937834611e-07</v>
+        <v>1.3391820142372668e-07</v>
       </c>
       <c r="I32" s="0">
-        <v>0.00094651873482136156</v>
+        <v>0.00094261103972262839</v>
       </c>
       <c r="J32" s="0">
-        <v>9.3499785327611537e-07</v>
+        <v>3.5587144406089168e-07</v>
       </c>
     </row>
     <row r="33">
@@ -1345,28 +1165,28 @@
         <v>1</v>
       </c>
       <c r="C33" s="0">
-        <v>0.00094123081343955306</v>
+        <v>0.00094045566328126995</v>
       </c>
       <c r="D33" s="0">
-        <v>6.0388594100679871e-05</v>
+        <v>5.5746786158050732e-05</v>
       </c>
       <c r="E33" s="0">
-        <v>9.0315451636618598e-05</v>
+        <v>1.7917122892581133e-05</v>
       </c>
       <c r="F33" s="0">
-        <v>3.1890230817177567e-08</v>
+        <v>7.2386056731987836e-09</v>
       </c>
       <c r="G33" s="0">
-        <v>-3.8118589501404468e-07</v>
+        <v>-4.2869585807582197e-07</v>
       </c>
       <c r="H33" s="0">
-        <v>9.0412225978248651e-07</v>
+        <v>1.7936285044570524e-07</v>
       </c>
       <c r="I33" s="0">
-        <v>0.00094748039941196975</v>
+        <v>0.00094227680755578009</v>
       </c>
       <c r="J33" s="0">
-        <v>9.8171112554224474e-07</v>
+        <v>4.6476184036930763e-07</v>
       </c>
     </row>
     <row r="34">
@@ -1377,28 +1197,28 @@
         <v>1</v>
       </c>
       <c r="C34" s="0">
-        <v>0.00094055430225559178</v>
+        <v>0.00094013345570331808</v>
       </c>
       <c r="D34" s="0">
-        <v>7.1586005425727794e-05</v>
+        <v>6.4828163282681928e-05</v>
       </c>
       <c r="E34" s="0">
-        <v>9.5048374807125686e-05</v>
+        <v>1.2746794547701062e-05</v>
       </c>
       <c r="F34" s="0">
-        <v>8.5268825028572692e-08</v>
+        <v>5.2928162963539194e-08</v>
       </c>
       <c r="G34" s="0">
-        <v>-2.6628577889627539e-07</v>
+        <v>-3.3339302672697954e-07</v>
       </c>
       <c r="H34" s="0">
-        <v>9.5149605231257611e-07</v>
+        <v>1.2760461878024898e-07</v>
       </c>
       <c r="I34" s="0">
-        <v>0.00094805123554467837</v>
+        <v>0.00094245216645647868</v>
       </c>
       <c r="J34" s="0">
-        <v>9.9172759673741366e-07</v>
+        <v>3.6088119851126093e-07</v>
       </c>
     </row>
     <row r="35">
@@ -1409,28 +1229,28 @@
         <v>1</v>
       </c>
       <c r="C35" s="0">
-        <v>0.00094098655373642259</v>
+        <v>0.00093937109957842324</v>
       </c>
       <c r="D35" s="0">
-        <v>5.9877141975250847e-05</v>
+        <v>7.4743649208675045e-05</v>
       </c>
       <c r="E35" s="0">
-        <v>8.7996210367027972e-05</v>
+        <v>2.2744453042585585e-05</v>
       </c>
       <c r="F35" s="0">
-        <v>2.9288891506551451e-08</v>
+        <v>1.0838942166024879e-07</v>
       </c>
       <c r="G35" s="0">
-        <v>-3.8622711562644185e-07</v>
+        <v>-2.2753862839036687e-07</v>
       </c>
       <c r="H35" s="0">
-        <v>8.8090499818371004e-07</v>
+        <v>2.2769115301828696e-07</v>
       </c>
       <c r="I35" s="0">
-        <v>0.00094698695845446144</v>
+        <v>0.00094261444183951044</v>
       </c>
       <c r="J35" s="0">
-        <v>9.6230080527652358e-07</v>
+        <v>3.396547589838977e-07</v>
       </c>
     </row>
     <row r="36">
@@ -1441,28 +1261,28 @@
         <v>1</v>
       </c>
       <c r="C36" s="0">
-        <v>0.00094092962264902269</v>
+        <v>0.00093988333787198286</v>
       </c>
       <c r="D36" s="0">
-        <v>5.9769286059885296e-05</v>
+        <v>6.4142043329051823e-05</v>
       </c>
       <c r="E36" s="0">
-        <v>8.5479925480172166e-05</v>
+        <v>1.217562548244939e-05</v>
       </c>
       <c r="F36" s="0">
-        <v>2.8669535696856929e-08</v>
+        <v>4.6247465586291003e-08</v>
       </c>
       <c r="G36" s="0">
-        <v>-3.8728643411787417e-07</v>
+        <v>-3.4447856722555695e-07</v>
       </c>
       <c r="H36" s="0">
-        <v>8.5571517796503196e-07</v>
+        <v>1.2187680496954981e-07</v>
       </c>
       <c r="I36" s="0">
-        <v>0.0009466930547937047</v>
+        <v>0.00094214814991470139</v>
       </c>
       <c r="J36" s="0">
-        <v>9.3971335529965636e-07</v>
+        <v>3.6831815993854199e-07</v>
       </c>
     </row>
     <row r="37">
@@ -1473,28 +1293,28 @@
         <v>1</v>
       </c>
       <c r="C37" s="0">
-        <v>0.00094101354976050544</v>
+        <v>0.00094089480290282523</v>
       </c>
       <c r="D37" s="0">
-        <v>5.668791077623192e-05</v>
+        <v>5.343060952983647e-05</v>
       </c>
       <c r="E37" s="0">
-        <v>6.7000249441963886e-05</v>
+        <v>1.4751079522610348e-05</v>
       </c>
       <c r="F37" s="0">
-        <v>1.3102495671768466e-08</v>
+        <v>-4.542700056398008e-09</v>
       </c>
       <c r="G37" s="0">
-        <v>-4.1941425603202187e-07</v>
+        <v>-4.5328425997631996e-07</v>
       </c>
       <c r="H37" s="0">
-        <v>6.7072020437522438e-07</v>
+        <v>1.4766858953328582e-07</v>
       </c>
       <c r="I37" s="0">
-        <v>0.00094509737777983844</v>
+        <v>0.00094252610282758668</v>
       </c>
       <c r="J37" s="0">
-        <v>7.9116723018137312e-07</v>
+        <v>4.767528382724454e-07</v>
       </c>
     </row>
     <row r="38">
@@ -1505,28 +1325,28 @@
         <v>1</v>
       </c>
       <c r="C38" s="0">
-        <v>0.00093972668773911749</v>
+        <v>0.00094154900778864459</v>
       </c>
       <c r="D38" s="0">
-        <v>6.7461868778206924e-05</v>
+        <v>5.4851030834801584e-05</v>
       </c>
       <c r="E38" s="0">
-        <v>7.8360106606107353e-05</v>
+        <v>1.6683262911260158e-05</v>
       </c>
       <c r="F38" s="0">
-        <v>6.5327081667787557e-08</v>
+        <v>2.4666605355494475e-09</v>
       </c>
       <c r="G38" s="0">
-        <v>-3.0417342968165617e-07</v>
+        <v>-4.3927753997155539e-07</v>
       </c>
       <c r="H38" s="0">
-        <v>7.8444487713556795e-07</v>
+        <v>1.6701107616928181e-07</v>
       </c>
       <c r="I38" s="0">
-        <v>0.00094539814771105906</v>
+        <v>0.00094329290303319237</v>
       </c>
       <c r="J38" s="0">
-        <v>8.4388557766309028e-07</v>
+        <v>4.6996121233659349e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1537,28 +1357,28 @@
         <v>1</v>
       </c>
       <c r="C39" s="0">
-        <v>0.00094090482815545329</v>
+        <v>0.00094080128061602153</v>
       </c>
       <c r="D39" s="0">
-        <v>6.9325398020181339e-05</v>
+        <v>6.9126418634213316e-05</v>
       </c>
       <c r="E39" s="0">
-        <v>8.5453700279087779e-05</v>
+        <v>1.6979615087392438e-05</v>
       </c>
       <c r="F39" s="0">
-        <v>7.6437703680487523e-08</v>
+        <v>7.1541302215649694e-08</v>
       </c>
       <c r="G39" s="0">
-        <v>-2.8625193148950831e-07</v>
+        <v>-2.9228001352694932e-07</v>
       </c>
       <c r="H39" s="0">
-        <v>8.5545607867330461e-07</v>
+        <v>1.6997210320500769e-07</v>
       </c>
       <c r="I39" s="0">
-        <v>0.00094731739208582457</v>
+        <v>0.00094349023242980875</v>
       </c>
       <c r="J39" s="0">
-        <v>9.0531099262326823e-07</v>
+        <v>3.4559554409447817e-07</v>
       </c>
     </row>
     <row r="40">
@@ -1569,28 +1389,28 @@
         <v>1</v>
       </c>
       <c r="C40" s="0">
-        <v>0.00093973142189085479</v>
+        <v>0.00094132949901304386</v>
       </c>
       <c r="D40" s="0">
-        <v>6.7411780975856761e-05</v>
+        <v>5.4385046796945336e-05</v>
       </c>
       <c r="E40" s="0">
-        <v>8.1564417666758675e-05</v>
+        <v>1.5863952307815024e-05</v>
       </c>
       <c r="F40" s="0">
-        <v>6.534276120878646e-08</v>
+        <v>1.2456254777637454e-10</v>
       </c>
       <c r="G40" s="0">
-        <v>-3.0466644132401757e-07</v>
+        <v>-4.4387091958138919e-07</v>
       </c>
       <c r="H40" s="0">
-        <v>8.1652257966109492e-07</v>
+        <v>1.5880921453474885e-07</v>
       </c>
       <c r="I40" s="0">
-        <v>0.00094567026374559439</v>
+        <v>0.00094303267388255361</v>
       </c>
       <c r="J40" s="0">
-        <v>8.7395677239085384e-07</v>
+        <v>4.7142525959795607e-07</v>
       </c>
     </row>
     <row r="41">
@@ -1601,28 +1421,28 @@
         <v>1</v>
       </c>
       <c r="C41" s="0">
-        <v>0.00094057637433486718</v>
+        <v>0.00094121237160837978</v>
       </c>
       <c r="D41" s="0">
-        <v>5.9001120980284316e-05</v>
+        <v>5.4126296994916334e-05</v>
       </c>
       <c r="E41" s="0">
-        <v>8.0941631991929299e-05</v>
+        <v>1.5051205754661715e-05</v>
       </c>
       <c r="F41" s="0">
-        <v>2.4895213140974093e-08</v>
+        <v>-1.1434000621313167e-09</v>
       </c>
       <c r="G41" s="0">
-        <v>-3.9486009788302148e-07</v>
+        <v>-4.464213107179503e-07</v>
       </c>
       <c r="H41" s="0">
-        <v>8.102834169223494e-07</v>
+        <v>1.5067306125097583e-07</v>
       </c>
       <c r="I41" s="0">
-        <v>0.00094589460090613233</v>
+        <v>0.00094288754541022642</v>
       </c>
       <c r="J41" s="0">
-        <v>9.0171696461632669e-07</v>
+        <v>4.7116415972946746e-07</v>
       </c>
     </row>
     <row r="42">
@@ -1633,28 +1453,28 @@
         <v>1</v>
       </c>
       <c r="C42" s="0">
-        <v>0.00094070910850696521</v>
+        <v>0.0009406122312078935</v>
       </c>
       <c r="D42" s="0">
-        <v>5.9266031073534897e-05</v>
+        <v>5.6013708413238383e-05</v>
       </c>
       <c r="E42" s="0">
-        <v>8.4896741544670187e-05</v>
+        <v>1.1590675597477597e-05</v>
       </c>
       <c r="F42" s="0">
-        <v>2.6311794625033524e-08</v>
+        <v>8.8734864317485673e-09</v>
       </c>
       <c r="G42" s="0">
-        <v>-3.9225439065404197e-07</v>
+        <v>-4.2604193849779884e-07</v>
       </c>
       <c r="H42" s="0">
-        <v>8.4987692726077736e-07</v>
+        <v>1.1602998098795082e-07</v>
       </c>
       <c r="I42" s="0">
-        <v>0.00094638974317776765</v>
+        <v>0.00094234985477204848</v>
       </c>
       <c r="J42" s="0">
-        <v>9.3640088050683949e-07</v>
+        <v>4.4164853515944201e-07</v>
       </c>
     </row>
     <row r="43">
@@ -1665,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="C43" s="0">
-        <v>0.00093971079203036822</v>
+        <v>0.00094026796486890163</v>
       </c>
       <c r="D43" s="0">
-        <v>8.4156307985472356e-05</v>
+        <v>6.5551997857238309e-05</v>
       </c>
       <c r="E43" s="0">
-        <v>0.00013816506471695409</v>
+        <v>1.3767900599920926e-05</v>
       </c>
       <c r="F43" s="0">
-        <v>1.6310682479647731e-07</v>
+        <v>5.4709998628665879e-08</v>
       </c>
       <c r="G43" s="0">
-        <v>-1.3134264284769132e-07</v>
+        <v>-3.247299615151758e-07</v>
       </c>
       <c r="H43" s="0">
-        <v>1.3831278717525139e-06</v>
+        <v>1.3783004257721844e-07</v>
       </c>
       <c r="I43" s="0">
-        <v>0.00095353460447973658</v>
+        <v>0.00094265076527243674</v>
       </c>
       <c r="J43" s="0">
-        <v>1.3988915024918993e-06</v>
+        <v>3.5698718813486013e-07</v>
       </c>
     </row>
     <row r="44">
@@ -1697,28 +1517,28 @@
         <v>1</v>
       </c>
       <c r="C44" s="0">
-        <v>0.00094089208631320531</v>
+        <v>0.0009397356766545073</v>
       </c>
       <c r="D44" s="0">
-        <v>6.928100017444816e-05</v>
+        <v>6.6994758186444958e-05</v>
       </c>
       <c r="E44" s="0">
-        <v>8.6722838300237252e-05</v>
+        <v>1.4973467137920499e-05</v>
       </c>
       <c r="F44" s="0">
-        <v>7.6289757768022159e-08</v>
+        <v>6.399137165297164e-08</v>
       </c>
       <c r="G44" s="0">
-        <v>-2.8668957040810239e-07</v>
+        <v>-3.0920861258205631e-07</v>
       </c>
       <c r="H44" s="0">
-        <v>8.6816117068449883e-07</v>
+        <v>1.4989791406095179e-07</v>
       </c>
       <c r="I44" s="0">
-        <v>0.00094741681732743021</v>
+        <v>0.000942239695788654</v>
       </c>
       <c r="J44" s="0">
-        <v>9.1745019222046347e-07</v>
+        <v>3.4953432790038438e-07</v>
       </c>
     </row>
     <row r="45">
@@ -1729,28 +1549,28 @@
         <v>1</v>
       </c>
       <c r="C45" s="0">
-        <v>0.00093920609736652949</v>
+        <v>0.00094034884522642415</v>
       </c>
       <c r="D45" s="0">
-        <v>7.624332261518818e-05</v>
+        <v>6.5693398456523333e-05</v>
       </c>
       <c r="E45" s="0">
-        <v>0.00011462598730073809</v>
+        <v>1.4807491886557379e-05</v>
       </c>
       <c r="F45" s="0">
-        <v>1.1299995851532518e-07</v>
+        <v>5.5548148011896892e-08</v>
       </c>
       <c r="G45" s="0">
-        <v>-2.1275500443991222e-07</v>
+        <v>-3.2332960540155595e-07</v>
       </c>
       <c r="H45" s="0">
-        <v>1.1474883867307212e-06</v>
+        <v>1.4823734040340605e-07</v>
       </c>
       <c r="I45" s="0">
-        <v>0.00094924193677825856</v>
+        <v>0.00094275703929241883</v>
       </c>
       <c r="J45" s="0">
-        <v>1.1725029979580287e-06</v>
+        <v>3.6000269383235558e-07</v>
       </c>
     </row>
     <row r="46">
@@ -1761,28 +1581,28 @@
         <v>1</v>
       </c>
       <c r="C46" s="0">
-        <v>0.00094088652207435786</v>
+        <v>0.00094138250281705638</v>
       </c>
       <c r="D46" s="0">
-        <v>6.9299110664000629e-05</v>
+        <v>5.4445520108359347e-05</v>
       </c>
       <c r="E46" s="0">
-        <v>8.5212484318688964e-05</v>
+        <v>1.4160979494020218e-05</v>
       </c>
       <c r="F46" s="0">
-        <v>7.6245387427287259e-08</v>
+        <v>6.6415059563063039e-10</v>
       </c>
       <c r="G46" s="0">
-        <v>-2.8651003682869311e-07</v>
+        <v>-4.4327285291531973e-07</v>
       </c>
       <c r="H46" s="0">
-        <v>8.5304135328317466e-07</v>
+        <v>1.4176111652790994e-07</v>
       </c>
       <c r="I46" s="0">
-        <v>0.00094727555739803888</v>
+        <v>0.00094306196223270771</v>
       </c>
       <c r="J46" s="0">
-        <v>9.0309518364273557e-07</v>
+        <v>4.653895974202045e-07</v>
       </c>
     </row>
     <row r="47">
@@ -1793,28 +1613,28 @@
         <v>1</v>
       </c>
       <c r="C47" s="0">
-        <v>0.00094123690742797805</v>
+        <v>0.00094081618344077356</v>
       </c>
       <c r="D47" s="0">
-        <v>5.5880782826922548e-05</v>
+        <v>5.3242320555091371e-05</v>
       </c>
       <c r="E47" s="0">
-        <v>5.8472417988922424e-05</v>
+        <v>1.4866901480070249e-05</v>
       </c>
       <c r="F47" s="0">
-        <v>5.2978448919493992e-09</v>
+        <v>-5.3846256342637844e-09</v>
       </c>
       <c r="G47" s="0">
-        <v>-4.2825368284059306e-07</v>
+        <v>-4.5514391816331087e-07</v>
       </c>
       <c r="H47" s="0">
-        <v>5.8535116116101462e-07</v>
+        <v>1.4882800750058455e-07</v>
       </c>
       <c r="I47" s="0">
-        <v>0.00094470556336850539</v>
+        <v>0.00094243878341342287</v>
       </c>
       <c r="J47" s="0">
-        <v>7.2530356810068055e-07</v>
+        <v>4.7888908554159582e-07</v>
       </c>
     </row>
     <row r="48">
@@ -1825,28 +1645,28 @@
         <v>1</v>
       </c>
       <c r="C48" s="0">
-        <v>0.00093922404107082968</v>
+        <v>0.00093950464889580587</v>
       </c>
       <c r="D48" s="0">
-        <v>7.6258983503052491e-05</v>
+        <v>8.3816259061675336e-05</v>
       </c>
       <c r="E48" s="0">
-        <v>0.00011577349992299341</v>
+        <v>2.6530105862442285e-05</v>
       </c>
       <c r="F48" s="0">
-        <v>1.131829546960339e-07</v>
+        <v>1.6093780297321558e-07</v>
       </c>
       <c r="G48" s="0">
-        <v>-2.1260282784263396e-07</v>
+        <v>-1.3468718465916088e-07</v>
       </c>
       <c r="H48" s="0">
-        <v>1.1589758195793967e-06</v>
+        <v>2.6558396481131405e-07</v>
       </c>
       <c r="I48" s="0">
-        <v>0.00094940019758516891</v>
+        <v>0.00094360902766823813</v>
       </c>
       <c r="J48" s="0">
-        <v>1.1837378485163611e-06</v>
+        <v>3.3849144228791629e-07</v>
       </c>
     </row>
     <row r="49">
@@ -1857,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="C49" s="0">
-        <v>0.00093761541809200821</v>
+        <v>0.00093978140820816236</v>
       </c>
       <c r="D49" s="0">
-        <v>0.00010524645219295303</v>
+        <v>6.7086295094220816e-05</v>
       </c>
       <c r="E49" s="0">
-        <v>0.00018211839890062371</v>
+        <v>1.544844275054219e-05</v>
       </c>
       <c r="F49" s="0">
-        <v>2.8768352529351393e-07</v>
+        <v>6.447165567385893e-08</v>
       </c>
       <c r="G49" s="0">
-        <v>9.1898797740033733e-08</v>
+        <v>-3.0830363831422375e-07</v>
       </c>
       <c r="H49" s="0">
-        <v>1.8231261699836402e-06</v>
+        <v>1.5465286879777899e-07</v>
       </c>
       <c r="I49" s="0">
-        <v>0.00096091966321913799</v>
+        <v>0.00094229948561304138</v>
       </c>
       <c r="J49" s="0">
-        <v>1.8479708416072438e-06</v>
+        <v>3.5089205977123413e-07</v>
       </c>
     </row>
     <row r="50">
@@ -1889,28 +1709,28 @@
         <v>1</v>
       </c>
       <c r="C50" s="0">
-        <v>0.00094011786718617429</v>
+        <v>0.00094049855229805246</v>
       </c>
       <c r="D50" s="0">
-        <v>5.8026290713053541e-05</v>
+        <v>7.2928209503497765e-05</v>
       </c>
       <c r="E50" s="0">
-        <v>7.555277397798859e-05</v>
+        <v>2.0553508029653076e-05</v>
       </c>
       <c r="F50" s="0">
-        <v>1.9988228835976507e-08</v>
+        <v>9.403284846609683e-08</v>
       </c>
       <c r="G50" s="0">
-        <v>-4.0446850202739346e-07</v>
+        <v>-2.4889711850405172e-07</v>
       </c>
       <c r="H50" s="0">
-        <v>7.5633708045755894e-07</v>
+        <v>2.0575658437613115e-07</v>
       </c>
       <c r="I50" s="0">
-        <v>0.00094493220723624726</v>
+        <v>0.00094354570493879284</v>
       </c>
       <c r="J50" s="0">
-        <v>8.5792778116770813e-07</v>
+        <v>3.3634465092282925e-07</v>
       </c>
     </row>
     <row r="51">
@@ -1921,28 +1741,28 @@
         <v>1</v>
       </c>
       <c r="C51" s="0">
-        <v>0.00094137977894703795</v>
+        <v>0.0009397335150032049</v>
       </c>
       <c r="D51" s="0">
-        <v>5.7498099684583082e-05</v>
+        <v>6.7000953951179554e-05</v>
       </c>
       <c r="E51" s="0">
-        <v>7.3421295912538343e-05</v>
+        <v>1.4957907541054283e-05</v>
       </c>
       <c r="F51" s="0">
-        <v>1.7033488196316338e-08</v>
+        <v>6.3970949981673186e-08</v>
       </c>
       <c r="G51" s="0">
-        <v>-4.1142658907577026e-07</v>
+        <v>-3.0914658149345728e-07</v>
       </c>
       <c r="H51" s="0">
-        <v>7.3499964873218761e-07</v>
+        <v>1.4974217204033535e-07</v>
       </c>
       <c r="I51" s="0">
-        <v>0.00094598763542193764</v>
+        <v>0.0009422377332969921</v>
       </c>
       <c r="J51" s="0">
-        <v>8.4248825603393187e-07</v>
+        <v>3.4940894289929952e-07</v>
       </c>
     </row>
     <row r="52">
@@ -1953,28 +1773,28 @@
         <v>1</v>
       </c>
       <c r="C52" s="0">
-        <v>0.00094100564595045455</v>
+        <v>0.00094061332294792521</v>
       </c>
       <c r="D52" s="0">
-        <v>6.850826974152957e-05</v>
+        <v>5.469965880944283e-05</v>
       </c>
       <c r="E52" s="0">
-        <v>8.2765744420468991e-05</v>
+        <v>9.4391344556309152e-06</v>
       </c>
       <c r="F52" s="0">
-        <v>6.9200751823261797e-08</v>
+        <v>-1.3183647229464412e-09</v>
       </c>
       <c r="G52" s="0">
-        <v>-2.9721322686087834e-07</v>
+        <v>-4.398846410510332e-07</v>
       </c>
       <c r="H52" s="0">
-        <v>8.285425319076768e-07</v>
+        <v>9.4491783007742533e-08</v>
       </c>
       <c r="I52" s="0">
-        <v>0.00094711941020289765</v>
+        <v>0.00094224974037686988</v>
       </c>
       <c r="J52" s="0">
-        <v>8.8295366438672433e-07</v>
+        <v>4.4992102926416022e-07</v>
       </c>
     </row>
     <row r="53">
@@ -1985,28 +1805,28 @@
         <v>1</v>
       </c>
       <c r="C53" s="0">
-        <v>0.00094036890223225811</v>
+        <v>0.00094054380078745226</v>
       </c>
       <c r="D53" s="0">
-        <v>6.4299256687716522e-05</v>
+        <v>7.30095801337316e-05</v>
       </c>
       <c r="E53" s="0">
-        <v>6.2486916643070067e-05</v>
+        <v>2.0926439831090676e-05</v>
       </c>
       <c r="F53" s="0">
-        <v>5.0306777181485796e-08</v>
+        <v>9.4509960101019086e-08</v>
       </c>
       <c r="G53" s="0">
-        <v>-3.3677486360739195e-07</v>
+        <v>-2.4809568467112561e-07</v>
       </c>
       <c r="H53" s="0">
-        <v>6.2554508926702212e-07</v>
+        <v>2.0948991932460971e-07</v>
       </c>
       <c r="I53" s="0">
-        <v>0.00094463362286531657</v>
+        <v>0.00094360529665481142</v>
       </c>
       <c r="J53" s="0">
-        <v>7.1221818236706917e-07</v>
+        <v>3.3818578859757296e-07</v>
       </c>
     </row>
     <row r="54">
@@ -2017,28 +1837,28 @@
         <v>1</v>
       </c>
       <c r="C54" s="0">
-        <v>0.00094113036302800879</v>
+        <v>0.00094020129308791667</v>
       </c>
       <c r="D54" s="0">
-        <v>5.695272481004432e-05</v>
+        <v>7.8551525442394077e-05</v>
       </c>
       <c r="E54" s="0">
-        <v>7.060711137065289e-05</v>
+        <v>3.5535308743087734e-05</v>
       </c>
       <c r="F54" s="0">
-        <v>1.4339911508232106e-08</v>
+        <v>1.3540944207579564e-07</v>
       </c>
       <c r="G54" s="0">
-        <v>-4.1680532357826761e-07</v>
+        <v>-1.9019043603994007e-07</v>
       </c>
       <c r="H54" s="0">
-        <v>7.0682765180050647e-07</v>
+        <v>3.557328336479211e-07</v>
       </c>
       <c r="I54" s="0">
-        <v>0.00094549211379716335</v>
+        <v>0.00094414594837926636</v>
       </c>
       <c r="J54" s="0">
-        <v>8.2069338986924118e-07</v>
+        <v>4.2550436883717222e-07</v>
       </c>
     </row>
     <row r="55">
@@ -2049,28 +1869,28 @@
         <v>1</v>
       </c>
       <c r="C55" s="0">
-        <v>0.00093972945571874078</v>
+        <v>0.00094086146806660054</v>
       </c>
       <c r="D55" s="0">
-        <v>6.7418081532044649e-05</v>
+        <v>5.6573142596050285e-05</v>
       </c>
       <c r="E55" s="0">
-        <v>8.1053008661955049e-05</v>
+        <v>1.3718915474020399e-05</v>
       </c>
       <c r="F55" s="0">
-        <v>6.5327189061048507e-08</v>
+        <v>1.1549964588908335e-08</v>
       </c>
       <c r="G55" s="0">
-        <v>-3.0460431091382592e-07</v>
+        <v>-4.2052955067902256e-07</v>
       </c>
       <c r="H55" s="0">
-        <v>8.1140297683053017e-07</v>
+        <v>1.3733544356994925e-07</v>
       </c>
       <c r="I55" s="0">
-        <v>0.00094562478704613979</v>
+        <v>0.00094266061294477296</v>
       </c>
       <c r="J55" s="0">
-        <v>8.691525865274466e-07</v>
+        <v>4.4253760149490163e-07</v>
       </c>
     </row>
     <row r="56">
@@ -2081,28 +1901,28 @@
         <v>1</v>
       </c>
       <c r="C56" s="0">
-        <v>0.00093953393769208304</v>
+        <v>0.0009409555181472129</v>
       </c>
       <c r="D56" s="0">
-        <v>7.0401245735651763e-05</v>
+        <v>5.6774377146073807e-05</v>
       </c>
       <c r="E56" s="0">
-        <v>9.1568330939565128e-05</v>
+        <v>1.3415631769466729e-05</v>
       </c>
       <c r="F56" s="0">
-        <v>8.0533842462815475e-08</v>
+        <v>1.2561387124909729e-08</v>
       </c>
       <c r="G56" s="0">
-        <v>-2.7290049844962486e-07</v>
+        <v>-4.1854270563116205e-07</v>
       </c>
       <c r="H56" s="0">
-        <v>9.1666947686143915e-07</v>
+        <v>1.3429923035181454e-07</v>
       </c>
       <c r="I56" s="0">
-        <v>0.00094660715965355993</v>
+        <v>0.00094276221615409916</v>
       </c>
       <c r="J56" s="0">
-        <v>9.5981420683656465e-07</v>
+        <v>4.3974091026040001e-07</v>
       </c>
     </row>
     <row r="57">
@@ -2113,28 +1933,28 @@
         <v>1</v>
       </c>
       <c r="C57" s="0">
-        <v>0.00094103374977461129</v>
+        <v>0.00094004193408459003</v>
       </c>
       <c r="D57" s="0">
-        <v>5.6737921983351924e-05</v>
+        <v>6.661868502366719e-05</v>
       </c>
       <c r="E57" s="0">
-        <v>6.8467380197312754e-05</v>
+        <v>1.4928514160739905e-05</v>
       </c>
       <c r="F57" s="0">
-        <v>1.3305360632709373e-08</v>
+        <v>5.8956385710906556e-08</v>
       </c>
       <c r="G57" s="0">
-        <v>-4.1892261578744747e-07</v>
+        <v>-3.1583344012667269e-07</v>
       </c>
       <c r="H57" s="0">
-        <v>6.8540736611105795e-07</v>
+        <v>1.4944292040239279e-07</v>
       </c>
       <c r="I57" s="0">
-        <v>0.00094522563028989965</v>
+        <v>0.00094251777042495422</v>
       </c>
       <c r="J57" s="0">
-        <v>8.0340304216443041e-07</v>
+        <v>3.5434418829259449e-07</v>
       </c>
     </row>
     <row r="58">
@@ -2145,28 +1965,28 @@
         <v>1</v>
       </c>
       <c r="C58" s="0">
-        <v>0.00093947505562042011</v>
+        <v>0.00094115005639761051</v>
       </c>
       <c r="D58" s="0">
-        <v>7.0246075094926308e-05</v>
+        <v>6.2833316778143633e-05</v>
       </c>
       <c r="E58" s="0">
-        <v>9.5047184023931144e-05</v>
+        <v>1.0709398503874798e-05</v>
       </c>
       <c r="F58" s="0">
-        <v>7.9865529689637782e-08</v>
+        <v>4.2229485831823954e-08</v>
       </c>
       <c r="G58" s="0">
-        <v>-2.7442394610064161e-07</v>
+        <v>-3.5295642585378428e-07</v>
       </c>
       <c r="H58" s="0">
-        <v>9.5149579730800523e-07</v>
+        <v>1.0721436180639952e-07</v>
       </c>
       <c r="I58" s="0">
-        <v>0.0009468800654729787</v>
+        <v>0.00094330596604223955</v>
       </c>
       <c r="J58" s="0">
-        <v>9.9349446768507521e-07</v>
+        <v>3.7129030071179033e-07</v>
       </c>
     </row>
     <row r="59">
@@ -2177,28 +1997,28 @@
         <v>1</v>
       </c>
       <c r="C59" s="0">
-        <v>0.00094059731013018677</v>
+        <v>0.00094080579964384015</v>
       </c>
       <c r="D59" s="0">
-        <v>5.9053633136907369e-05</v>
+        <v>5.6433875125772026e-05</v>
       </c>
       <c r="E59" s="0">
-        <v>8.1016569021387963e-05</v>
+        <v>1.2773218777667856e-05</v>
       </c>
       <c r="F59" s="0">
-        <v>2.5118211066654794e-08</v>
+        <v>1.0928089481943015e-08</v>
       </c>
       <c r="G59" s="0">
-        <v>-3.9434141028320616e-07</v>
+        <v>-4.2190220854356614e-07</v>
       </c>
       <c r="H59" s="0">
-        <v>8.1103364191001768e-07</v>
+        <v>1.2786820947116293e-07</v>
       </c>
       <c r="I59" s="0">
-        <v>0.00094592511113026734</v>
+        <v>0.00094258341276681659</v>
       </c>
       <c r="J59" s="0">
-        <v>9.0217051642201416e-07</v>
+        <v>4.4098886120516163e-07</v>
       </c>
     </row>
     <row r="60">
@@ -2209,28 +2029,28 @@
         <v>1</v>
       </c>
       <c r="C60" s="0">
-        <v>0.00094038023369336088</v>
+        <v>0.00094033898421663764</v>
       </c>
       <c r="D60" s="0">
-        <v>6.4302832096796436e-05</v>
+        <v>6.5678403287361409e-05</v>
       </c>
       <c r="E60" s="0">
-        <v>6.3388346775864002e-05</v>
+        <v>1.4650185819554968e-05</v>
       </c>
       <c r="F60" s="0">
-        <v>5.0414443050761371e-08</v>
+        <v>5.5446853879093094e-08</v>
       </c>
       <c r="G60" s="0">
-        <v>-3.3673650965109631e-07</v>
+        <v>-3.2347821469526361e-07</v>
       </c>
       <c r="H60" s="0">
-        <v>6.3456913388834981e-07</v>
+        <v>1.4666256361313313e-07</v>
       </c>
       <c r="I60" s="0">
-        <v>0.00094470520303628364</v>
+        <v>0.00094274370103464636</v>
       </c>
       <c r="J60" s="0">
-        <v>7.2014656750131893e-07</v>
+        <v>3.5947519601928152e-07</v>
       </c>
     </row>
     <row r="61">
@@ -2241,28 +2061,28 @@
         <v>1</v>
       </c>
       <c r="C61" s="0">
-        <v>0.00093979442783798106</v>
+        <v>0.00093977979080772656</v>
       </c>
       <c r="D61" s="0">
-        <v>7.838273310284416e-05</v>
+        <v>6.7921740523502194e-05</v>
       </c>
       <c r="E61" s="0">
-        <v>0.00012613579968274744</v>
+        <v>1.6113673169392601e-05</v>
       </c>
       <c r="F61" s="0">
-        <v>1.2920650857561888e-07</v>
+        <v>6.6777737423029393e-08</v>
       </c>
       <c r="G61" s="0">
-        <v>-1.8996942712998233e-07</v>
+        <v>-2.9906388550760693e-07</v>
       </c>
       <c r="H61" s="0">
-        <v>1.2627112951062785e-06</v>
+        <v>1.6131377379352175e-07</v>
       </c>
       <c r="I61" s="0">
-        <v>0.0009514555477822367</v>
+        <v>0.00094236886011230567</v>
       </c>
       <c r="J61" s="0">
-        <v>1.2834416698437722e-06</v>
+        <v>3.4629554927222726e-07</v>
       </c>
     </row>
     <row r="62">
@@ -2273,28 +2093,28 @@
         <v>1</v>
       </c>
       <c r="C62" s="0">
-        <v>0.00093959856636871564</v>
+        <v>0.00094069265344831621</v>
       </c>
       <c r="D62" s="0">
-        <v>8.6607527235771364e-05</v>
+        <v>5.6179489390462134e-05</v>
       </c>
       <c r="E62" s="0">
-        <v>0.00014828698077440239</v>
+        <v>1.218854862328801e-05</v>
       </c>
       <c r="F62" s="0">
-        <v>1.7818720771806129e-07</v>
+        <v>9.7164245260739079e-09</v>
       </c>
       <c r="G62" s="0">
-        <v>-1.0550080656399757e-07</v>
+        <v>-4.2441045958315979e-07</v>
       </c>
       <c r="H62" s="0">
-        <v>1.4844548045530736e-06</v>
+        <v>1.2201521549729631e-07</v>
       </c>
       <c r="I62" s="0">
-        <v>0.00095516247746822041</v>
+        <v>0.00094244753912212499</v>
       </c>
       <c r="J62" s="0">
-        <v>1.4988285985864819e-06</v>
+        <v>4.4170845579636742e-07</v>
       </c>
     </row>
     <row r="63">
@@ -2305,28 +2125,28 @@
         <v>1</v>
       </c>
       <c r="C63" s="0">
-        <v>0.00094038166219156949</v>
+        <v>0.00093990142146171962</v>
       </c>
       <c r="D63" s="0">
-        <v>6.4327093399429991e-05</v>
+        <v>6.8178823534159605e-05</v>
       </c>
       <c r="E63" s="0">
-        <v>6.2349788428549589e-05</v>
+        <v>1.7509804277372665e-05</v>
       </c>
       <c r="F63" s="0">
-        <v>5.0448346007592182e-08</v>
+        <v>6.804624480549748e-08</v>
       </c>
       <c r="G63" s="0">
-        <v>-3.365007406994254e-07</v>
+        <v>-2.9651633043532855e-07</v>
       </c>
       <c r="H63" s="0">
-        <v>6.24172236661205e-07</v>
+        <v>1.7529055643984092e-07</v>
       </c>
       <c r="I63" s="0">
-        <v>0.00094463915949344541</v>
+        <v>0.00094253362130488217</v>
       </c>
       <c r="J63" s="0">
-        <v>7.1089293506463755e-07</v>
+        <v>3.5111110039979038e-07</v>
       </c>
     </row>
     <row r="64">
@@ -2337,28 +2157,28 @@
         <v>1</v>
       </c>
       <c r="C64" s="0">
-        <v>0.00094072854960103314</v>
+        <v>0.00094149027337309121</v>
       </c>
       <c r="D64" s="0">
-        <v>7.2554570297866938e-05</v>
+        <v>5.4695741950550048e-05</v>
       </c>
       <c r="E64" s="0">
-        <v>0.00010072442473660135</v>
+        <v>1.4061126497636765e-05</v>
       </c>
       <c r="F64" s="0">
-        <v>9.3839028908471178e-08</v>
+        <v>1.819087575016809e-09</v>
       </c>
       <c r="G64" s="0">
-        <v>-2.5337446139502354e-07</v>
+        <v>-4.4080235447755203e-07</v>
       </c>
       <c r="H64" s="0">
-        <v>1.0083236143062641e-06</v>
+        <v>1.4076153559123083e-07</v>
       </c>
       <c r="I64" s="0">
-        <v>0.00094888343828106246</v>
+        <v>0.00094318252439389569</v>
       </c>
       <c r="J64" s="0">
-        <v>1.0438969739401255e-06</v>
+        <v>4.6273516690928125e-07</v>
       </c>
     </row>
     <row r="65">
@@ -2369,28 +2189,28 @@
         <v>1</v>
       </c>
       <c r="C65" s="0">
-        <v>0.00094011815357664119</v>
+        <v>0.00094116862204352003</v>
       </c>
       <c r="D65" s="0">
-        <v>5.8025050293342151e-05</v>
+        <v>6.2860335712844329e-05</v>
       </c>
       <c r="E65" s="0">
-        <v>7.6098344724543726e-05</v>
+        <v>1.0954550681696085e-05</v>
       </c>
       <c r="F65" s="0">
-        <v>1.9989560187672062e-08</v>
+        <v>4.2416811382728348e-08</v>
       </c>
       <c r="G65" s="0">
-        <v>-4.0448190439384968e-07</v>
+        <v>-3.5268552528834943e-07</v>
       </c>
       <c r="H65" s="0">
-        <v>7.6179864336254281e-07</v>
+        <v>1.0966859058195348e-07</v>
       </c>
       <c r="I65" s="0">
-        <v>0.00094497619399417331</v>
+        <v>0.00094332910434580979</v>
       </c>
       <c r="J65" s="0">
-        <v>8.6275278413203778e-07</v>
+        <v>3.717707161625685e-07</v>
       </c>
     </row>
     <row r="66">
@@ -2401,28 +2221,28 @@
         <v>1</v>
       </c>
       <c r="C66" s="0">
-        <v>0.00093977346914808635</v>
+        <v>0.00093945352209789945</v>
       </c>
       <c r="D66" s="0">
-        <v>7.385983058016965e-05</v>
+        <v>7.4867537388723093e-05</v>
       </c>
       <c r="E66" s="0">
-        <v>0.00010798253834516269</v>
+        <v>2.3404548919513256e-05</v>
       </c>
       <c r="F66" s="0">
-        <v>9.9992578120322584e-08</v>
+        <v>1.092486587653263e-07</v>
       </c>
       <c r="G66" s="0">
-        <v>-2.3731407243574726e-07</v>
+        <v>-2.263196224776623e-07</v>
       </c>
       <c r="H66" s="0">
-        <v>1.0809858614565118e-06</v>
+        <v>2.3429923580606713e-07</v>
       </c>
       <c r="I66" s="0">
-        <v>0.00094883595867537875</v>
+        <v>0.00094272256854650838</v>
       </c>
       <c r="J66" s="0">
-        <v>1.111236661258107e-06</v>
+        <v>3.4358692184040028e-07</v>
       </c>
     </row>
     <row r="67">
@@ -2433,28 +2253,28 @@
         <v>1</v>
       </c>
       <c r="C67" s="0">
-        <v>0.00093971787576219157</v>
+        <v>0.00093869329515250399</v>
       </c>
       <c r="D67" s="0">
-        <v>7.5118771470261692e-05</v>
+        <v>8.7849154274954877e-05</v>
       </c>
       <c r="E67" s="0">
-        <v>0.00010869262916201457</v>
+        <v>2.9668934248087117e-05</v>
       </c>
       <c r="F67" s="0">
-        <v>1.0522453674360888e-07</v>
+        <v>1.8494799832596831e-07</v>
       </c>
       <c r="G67" s="0">
-        <v>-2.2611340144782638e-07</v>
+        <v>-9.1516094057920994e-08</v>
       </c>
       <c r="H67" s="0">
-        <v>1.0880895897421354e-06</v>
+        <v>2.9700555635501476e-07</v>
       </c>
       <c r="I67" s="0">
-        <v>0.00094896080187137247</v>
+        <v>0.00094326179925326571</v>
       </c>
       <c r="J67" s="0">
-        <v>1.1163057057779564e-06</v>
+        <v>3.6165350553002035e-07</v>
       </c>
     </row>
     <row r="68">
@@ -2465,28 +2285,28 @@
         <v>1</v>
       </c>
       <c r="C68" s="0">
-        <v>0.00094090102933908071</v>
+        <v>0.00094114286487378962</v>
       </c>
       <c r="D68" s="0">
-        <v>6.9291901337142914e-05</v>
+        <v>6.2815413172712109e-05</v>
       </c>
       <c r="E68" s="0">
-        <v>8.6926228782120704e-05</v>
+        <v>1.0614904921328721e-05</v>
       </c>
       <c r="F68" s="0">
-        <v>7.6382853958500974e-08</v>
+        <v>4.2156995214148729e-08</v>
       </c>
       <c r="G68" s="0">
-        <v>-2.8658269077578777e-07</v>
+        <v>-3.5313407812731859e-07</v>
       </c>
       <c r="H68" s="0">
-        <v>8.7019724635290602e-07</v>
+        <v>1.0626831047707934e-07</v>
       </c>
       <c r="I68" s="0">
-        <v>0.00094744513500916747</v>
+        <v>0.00094329653049366803</v>
       </c>
       <c r="J68" s="0">
-        <v>9.193515250388812e-07</v>
+        <v>3.7117899077395238e-07</v>
       </c>
     </row>
     <row r="69">
@@ -2497,28 +2317,28 @@
         <v>1</v>
       </c>
       <c r="C69" s="0">
-        <v>0.00093974665619356301</v>
+        <v>0.00094085942672705869</v>
       </c>
       <c r="D69" s="0">
-        <v>7.3810148296049594e-05</v>
+        <v>6.9874829789040582e-05</v>
       </c>
       <c r="E69" s="0">
-        <v>0.00010847753443670774</v>
+        <v>1.8064568792443197e-05</v>
       </c>
       <c r="F69" s="0">
-        <v>9.9703888041535738e-08</v>
+        <v>7.8872507837390859e-08</v>
       </c>
       <c r="G69" s="0">
-        <v>-2.378020440524202e-07</v>
+        <v>-2.8151773564643462e-07</v>
       </c>
       <c r="H69" s="0">
-        <v>1.0859412066896687e-06</v>
+        <v>1.8083957475745121e-07</v>
       </c>
       <c r="I69" s="0">
-        <v>0.00094886199802496818</v>
+        <v>0.00094362348494771674</v>
       </c>
       <c r="J69" s="0">
-        <v>1.1161357362940772e-06</v>
+        <v>3.4376745013818705e-07</v>
       </c>
     </row>
     <row r="70">
@@ -2529,28 +2349,28 @@
         <v>1</v>
       </c>
       <c r="C70" s="0">
-        <v>0.00094059660430634295</v>
+        <v>0.00094087191673430937</v>
       </c>
       <c r="D70" s="0">
-        <v>7.1674544450728295e-05</v>
+        <v>5.6596329721381178e-05</v>
       </c>
       <c r="E70" s="0">
-        <v>9.2824804329299254e-05</v>
+        <v>1.3841098493275629e-05</v>
       </c>
       <c r="F70" s="0">
-        <v>8.5691059290016192e-08</v>
+        <v>1.165534195546325e-08</v>
       </c>
       <c r="G70" s="0">
-        <v>-2.6540272743272655e-07</v>
+        <v>-4.2030176795014584e-07</v>
       </c>
       <c r="H70" s="0">
-        <v>9.2923699733301787e-07</v>
+        <v>1.3855858512289831e-07</v>
       </c>
       <c r="I70" s="0">
-        <v>0.00094787955809460059</v>
+        <v>0.00094267421957149392</v>
       </c>
       <c r="J70" s="0">
-        <v>9.7018707607525799e-07</v>
+        <v>4.4270521190672295e-07</v>
       </c>
     </row>
     <row r="71">
@@ -2561,28 +2381,28 @@
         <v>1</v>
       </c>
       <c r="C71" s="0">
-        <v>0.00094086093147360828</v>
+        <v>0.00093980146988759117</v>
       </c>
       <c r="D71" s="0">
-        <v>5.9606851337823397e-05</v>
+        <v>7.1007272292034074e-05</v>
       </c>
       <c r="E71" s="0">
-        <v>8.5831027836151297e-05</v>
+        <v>1.9610572769406852e-05</v>
       </c>
       <c r="F71" s="0">
-        <v>2.7931188410768026e-08</v>
+        <v>8.3937630845909439e-08</v>
       </c>
       <c r="G71" s="0">
-        <v>-3.8889172329463484e-07</v>
+        <v>-2.671453573784531e-07</v>
       </c>
       <c r="H71" s="0">
-        <v>8.5922993037379014e-07</v>
+        <v>1.9631950816970293e-07</v>
       </c>
       <c r="I71" s="0">
-        <v>0.00094664630905064292</v>
+        <v>0.00094268415181627836</v>
       </c>
       <c r="J71" s="0">
-        <v>9.4355338851771232e-07</v>
+        <v>3.4198467382161974e-07</v>
       </c>
     </row>
     <row r="72">
@@ -2593,28 +2413,28 @@
         <v>1</v>
       </c>
       <c r="C72" s="0">
-        <v>0.00093874367524371394</v>
+        <v>0.00093954705110110837</v>
       </c>
       <c r="D72" s="0">
-        <v>9.0790305212751221e-05</v>
+        <v>7.1846838293865289e-05</v>
       </c>
       <c r="E72" s="0">
-        <v>0.00014999801653297625</v>
+        <v>1.9218522787141469e-05</v>
       </c>
       <c r="F72" s="0">
-        <v>2.0181720924994373e-07</v>
+        <v>8.7050849355285731e-08</v>
       </c>
       <c r="G72" s="0">
-        <v>-6.0807171710624414e-08</v>
+        <v>-2.6009303455681171e-07</v>
       </c>
       <c r="H72" s="0">
-        <v>1.5015825597433871e-06</v>
+        <v>1.9239043611531309e-07</v>
       </c>
       <c r="I72" s="0">
-        <v>0.00095497747213980238</v>
+        <v>0.00094248606410054332</v>
       </c>
       <c r="J72" s="0">
-        <v>1.5163040202434286e-06</v>
+        <v>3.350228602753667e-07</v>
       </c>
     </row>
     <row r="73">
@@ -2625,28 +2445,28 @@
         <v>1</v>
       </c>
       <c r="C73" s="0">
-        <v>0.00094095077279643391</v>
+        <v>0.00093977928340560624</v>
       </c>
       <c r="D73" s="0">
-        <v>5.9794657366163406e-05</v>
+        <v>6.7075173801334209e-05</v>
       </c>
       <c r="E73" s="0">
-        <v>8.7865941523097144e-05</v>
+        <v>1.5477085415177262e-05</v>
       </c>
       <c r="F73" s="0">
-        <v>2.8891388358098791e-08</v>
+        <v>6.4446991430988643e-08</v>
       </c>
       <c r="G73" s="0">
-        <v>-3.8704199738183107e-07</v>
+        <v>-3.0841377212818474e-07</v>
       </c>
       <c r="H73" s="0">
-        <v>8.7960091943006876e-07</v>
+        <v>1.5493959191074172e-07</v>
       </c>
       <c r="I73" s="0">
-        <v>0.00094693409567692902</v>
+        <v>0.00094229704479626948</v>
       </c>
       <c r="J73" s="0">
-        <v>9.6142290253602668e-07</v>
+        <v>3.5111073279566514e-07</v>
       </c>
     </row>
     <row r="74">
@@ -2657,28 +2477,28 @@
         <v>1</v>
       </c>
       <c r="C74" s="0">
-        <v>0.00094104809311446047</v>
+        <v>0.00093982324341279622</v>
       </c>
       <c r="D74" s="0">
-        <v>6.8617494554890079e-05</v>
+        <v>7.1062766559382151e-05</v>
       </c>
       <c r="E74" s="0">
-        <v>8.0582833038440145e-05</v>
+        <v>1.9869762652004279e-05</v>
       </c>
       <c r="F74" s="0">
-        <v>6.9649497627666257e-08</v>
+        <v>8.4168534766893011e-08</v>
       </c>
       <c r="G74" s="0">
-        <v>-2.9612893900649723e-07</v>
+        <v>-2.6659558082474388e-07</v>
       </c>
       <c r="H74" s="0">
-        <v>8.0669018955093461e-07</v>
+        <v>1.9891426731296064e-07</v>
       </c>
       <c r="I74" s="0">
-        <v>0.00094698123904006341</v>
+        <v>0.00094271546774085994</v>
       </c>
       <c r="J74" s="0">
-        <v>8.6214410799739441e-07</v>
+        <v>3.4310994112782596e-07</v>
       </c>
     </row>
     <row r="75">
@@ -2689,28 +2509,28 @@
         <v>1</v>
       </c>
       <c r="C75" s="0">
-        <v>0.00094017001937984901</v>
+        <v>0.00094072521352206451</v>
       </c>
       <c r="D75" s="0">
-        <v>6.4051252881225373e-05</v>
+        <v>6.8945887013838192e-05</v>
       </c>
       <c r="E75" s="0">
-        <v>6.1772075378699394e-05</v>
+        <v>1.6060205786626565e-05</v>
       </c>
       <c r="F75" s="0">
-        <v>4.5747362717452056e-08</v>
+        <v>7.0692596838839439e-08</v>
       </c>
       <c r="G75" s="0">
-        <v>-3.436540928886643e-07</v>
+        <v>-2.9405272446159092e-07</v>
       </c>
       <c r="H75" s="0">
-        <v>6.1837793446333928e-07</v>
+        <v>1.6076863801468134e-07</v>
       </c>
       <c r="I75" s="0">
-        <v>0.00094437175817204105</v>
+        <v>0.00094338507137974557</v>
       </c>
       <c r="J75" s="0">
-        <v>7.0893033972730976e-07</v>
+        <v>3.4250693858694113e-07</v>
       </c>
     </row>
     <row r="76">
@@ -2721,28 +2541,28 @@
         <v>1</v>
       </c>
       <c r="C76" s="0">
-        <v>0.0009402087872203424</v>
+        <v>0.00094097720294517018</v>
       </c>
       <c r="D76" s="0">
-        <v>5.82114546737178e-05</v>
+        <v>5.3630137370030972e-05</v>
       </c>
       <c r="E76" s="0">
-        <v>7.772469530868517e-05</v>
+        <v>1.4887852640483535e-05</v>
       </c>
       <c r="F76" s="0">
-        <v>2.0954231370884369e-08</v>
+        <v>-3.6554670956867596e-09</v>
       </c>
       <c r="G76" s="0">
-        <v>-4.0264654859291718e-07</v>
+        <v>-4.5131416907644162e-07</v>
       </c>
       <c r="H76" s="0">
-        <v>7.7807956714607656e-07</v>
+        <v>1.4903779936259662e-07</v>
       </c>
       <c r="I76" s="0">
-        <v>0.00094521016990000979</v>
+        <v>0.00094262184159560466</v>
       </c>
       <c r="J76" s="0">
-        <v>8.763396235001353e-07</v>
+        <v>4.7530001818608444e-07</v>
       </c>
     </row>
     <row r="77">
@@ -2753,28 +2573,28 @@
         <v>1</v>
       </c>
       <c r="C77" s="0">
-        <v>0.00093922945116986511</v>
+        <v>0.00093969433108487266</v>
       </c>
       <c r="D77" s="0">
-        <v>7.7323676200169444e-05</v>
+        <v>9.2684170984902448e-05</v>
       </c>
       <c r="E77" s="0">
-        <v>0.00012017211826573817</v>
+        <v>3.0006743724891582e-05</v>
       </c>
       <c r="F77" s="0">
-        <v>1.1576947446523267e-07</v>
+        <v>2.1193815964021256e-07</v>
       </c>
       <c r="G77" s="0">
-        <v>-2.0049209842028584e-07</v>
+        <v>-4.2152705574324822e-08</v>
       </c>
       <c r="H77" s="0">
-        <v>1.2030123762090483e-06</v>
+        <v>3.0038720826923227e-07</v>
       </c>
       <c r="I77" s="0">
-        <v>0.00095003802600444854</v>
+        <v>0.00094473075322717016</v>
       </c>
       <c r="J77" s="0">
-        <v>1.2250871112125319e-06</v>
+        <v>3.7003663195783614e-07</v>
       </c>
     </row>
     <row r="78">
@@ -2785,28 +2605,28 @@
         <v>1</v>
       </c>
       <c r="C78" s="0">
-        <v>0.00094124407790108222</v>
+        <v>0.00094122289912235146</v>
       </c>
       <c r="D78" s="0">
-        <v>6.0424003016923411e-05</v>
+        <v>5.416676852548763e-05</v>
       </c>
       <c r="E78" s="0">
-        <v>8.9697007984776189e-05</v>
+        <v>1.5653857238650095e-05</v>
       </c>
       <c r="F78" s="0">
-        <v>3.2032571734008641e-08</v>
+        <v>-1.0231578917441198e-09</v>
       </c>
       <c r="G78" s="0">
-        <v>-3.8083510204341836e-07</v>
+        <v>-4.4602246206636165e-07</v>
       </c>
       <c r="H78" s="0">
-        <v>8.9793121552110616e-07</v>
+        <v>1.5670603379712679e-07</v>
       </c>
       <c r="I78" s="0">
-        <v>0.00094743708369784041</v>
+        <v>0.0009429101907876624</v>
       </c>
       <c r="J78" s="0">
-        <v>9.7588007890699694e-07</v>
+        <v>4.7275137709819173e-07</v>
       </c>
     </row>
     <row r="79">
@@ -2817,28 +2637,28 @@
         <v>1</v>
       </c>
       <c r="C79" s="0">
-        <v>0.00093917220815775693</v>
+        <v>0.0009399768715043777</v>
       </c>
       <c r="D79" s="0">
-        <v>7.6206161985559184e-05</v>
+        <v>6.6476104482793286e-05</v>
       </c>
       <c r="E79" s="0">
-        <v>0.00011376108092538171</v>
+        <v>1.4072892404201632e-05</v>
       </c>
       <c r="F79" s="0">
-        <v>1.1264925050408214e-07</v>
+        <v>5.8248789590320538e-08</v>
       </c>
       <c r="G79" s="0">
-        <v>-2.1311722217358386e-07</v>
+        <v>-3.1723585950087924e-07</v>
       </c>
       <c r="H79" s="0">
-        <v>1.1388300634435203e-06</v>
+        <v>1.4087771100823441e-07</v>
       </c>
       <c r="I79" s="0">
-        <v>0.00094910136404590512</v>
+        <v>0.00094242964603782756</v>
       </c>
       <c r="J79" s="0">
-        <v>1.1640630212445067e-06</v>
+        <v>3.5196312520052244e-07</v>
       </c>
     </row>
     <row r="80">
@@ -2849,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="C80" s="0">
-        <v>0.00094063340526329142</v>
+        <v>0.0009410573353045848</v>
       </c>
       <c r="D80" s="0">
-        <v>6.2236563342865647e-05</v>
+        <v>6.2835002829386699e-05</v>
       </c>
       <c r="E80" s="0">
-        <v>0.00010051716283127033</v>
+        <v>1.0910057880061055e-05</v>
       </c>
       <c r="F80" s="0">
-        <v>4.1932854966120203e-08</v>
+        <v>3.8823877064608769e-08</v>
       </c>
       <c r="G80" s="0">
-        <v>-3.6123172562430375e-07</v>
+        <v>-3.573986007915711e-07</v>
       </c>
       <c r="H80" s="0">
-        <v>1.0062484013430828e-06</v>
+        <v>1.0921281619682624e-07</v>
       </c>
       <c r="I80" s="0">
-        <v>0.00094803390917076063</v>
+        <v>0.00094321586886252139</v>
       </c>
       <c r="J80" s="0">
-        <v>1.0699451243538763e-06</v>
+        <v>3.7572395784637214e-07</v>
       </c>
     </row>
     <row r="81">
@@ -2881,28 +2701,28 @@
         <v>1</v>
       </c>
       <c r="C81" s="0">
-        <v>0.00094036375630146551</v>
+        <v>0.00094075966839302083</v>
       </c>
       <c r="D81" s="0">
-        <v>6.4301026804047812e-05</v>
+        <v>5.6352196818654221e-05</v>
       </c>
       <c r="E81" s="0">
-        <v>6.1909720504971325e-05</v>
+        <v>1.4123914724992237e-05</v>
       </c>
       <c r="F81" s="0">
-        <v>5.0260457150341775e-08</v>
+        <v>1.0457760185600407e-08</v>
       </c>
       <c r="G81" s="0">
-        <v>-3.3675916875919309e-07</v>
+        <v>-4.2271211260448346e-07</v>
       </c>
       <c r="H81" s="0">
-        <v>6.1976686741041082e-07</v>
+        <v>1.4138980141811515e-07</v>
       </c>
       <c r="I81" s="0">
-        <v>0.00094459061487316327</v>
+        <v>0.00094255175387264207</v>
       </c>
       <c r="J81" s="0">
-        <v>7.0713776680082483e-07</v>
+        <v>4.4585420356401159e-07</v>
       </c>
     </row>
     <row r="82">
@@ -2913,28 +2733,28 @@
         <v>1</v>
       </c>
       <c r="C82" s="0">
-        <v>0.00094058808009922501</v>
+        <v>0.00094053682597827759</v>
       </c>
       <c r="D82" s="0">
-        <v>7.1616981146327419e-05</v>
+        <v>7.4073264237806136e-05</v>
       </c>
       <c r="E82" s="0">
-        <v>9.6783374419558412e-05</v>
+        <v>2.2100048861476289e-05</v>
       </c>
       <c r="F82" s="0">
-        <v>8.562679681273222e-08</v>
+        <v>9.6968920358653232e-08</v>
       </c>
       <c r="G82" s="0">
-        <v>-2.6599537435341436e-07</v>
+        <v>-2.3598249929059761e-07</v>
       </c>
       <c r="H82" s="0">
-        <v>9.6886453454961728e-07</v>
+        <v>2.2124164641490811e-07</v>
       </c>
       <c r="I82" s="0">
-        <v>0.00094826259547516479</v>
+        <v>0.00094370799596899479</v>
       </c>
       <c r="J82" s="0">
-        <v>1.008357066627625e-06</v>
+        <v>3.376959839786949e-07</v>
       </c>
     </row>
     <row r="83">
@@ -2945,28 +2765,28 @@
         <v>1</v>
       </c>
       <c r="C83" s="0">
-        <v>0.00094059498447052192</v>
+        <v>0.00094162879466441751</v>
       </c>
       <c r="D83" s="0">
-        <v>5.90682244664964e-05</v>
+        <v>5.5025970636668475e-05</v>
       </c>
       <c r="E83" s="0">
-        <v>7.9030174750180005e-05</v>
+        <v>1.6451569494588361e-05</v>
       </c>
       <c r="F83" s="0">
-        <v>2.5092870788168131e-08</v>
+        <v>3.3192592563402457e-09</v>
       </c>
       <c r="G83" s="0">
-        <v>-3.9419236530502388e-07</v>
+        <v>-4.3755085828807092e-07</v>
       </c>
       <c r="H83" s="0">
-        <v>7.9114844314388411e-07</v>
+        <v>1.6469166764925122e-07</v>
       </c>
       <c r="I83" s="0">
-        <v>0.00094575564945379505</v>
+        <v>0.0009433786612620123</v>
       </c>
       <c r="J83" s="0">
-        <v>8.8426982992644999e-07</v>
+        <v>4.6753087220388961e-07</v>
       </c>
     </row>
     <row r="84">
@@ -2977,28 +2797,28 @@
         <v>1</v>
       </c>
       <c r="C84" s="0">
-        <v>0.0009410676750061242</v>
+        <v>0.00094047281753351086</v>
       </c>
       <c r="D84" s="0">
-        <v>6.6673750074353055e-05</v>
+        <v>7.2899852537999799e-05</v>
       </c>
       <c r="E84" s="0">
-        <v>7.5406857565273719e-05</v>
+        <v>2.0356164229361057e-05</v>
       </c>
       <c r="F84" s="0">
-        <v>6.286639300800978e-08</v>
+        <v>9.3766597174249622e-08</v>
       </c>
       <c r="G84" s="0">
-        <v>-3.1521065187818317e-07</v>
+        <v>-2.4917377199800209e-07</v>
       </c>
       <c r="H84" s="0">
-        <v>7.5487710513644274e-07</v>
+        <v>2.037810319684669e-07</v>
       </c>
       <c r="I84" s="0">
-        <v>0.00094643539243747588</v>
+        <v>0.00094351358360206727</v>
       </c>
       <c r="J84" s="0">
-        <v>8.2045681317573494e-07</v>
+        <v>3.3527071507586769e-07</v>
       </c>
     </row>
     <row r="85">
@@ -3009,28 +2829,28 @@
         <v>1</v>
       </c>
       <c r="C85" s="0">
-        <v>0.00094058944555186486</v>
+        <v>0.00094061603571837793</v>
       </c>
       <c r="D85" s="0">
-        <v>5.9046029659171051e-05</v>
+        <v>5.6080768781385792e-05</v>
       </c>
       <c r="E85" s="0">
-        <v>7.9739705238764892e-05</v>
+        <v>1.9433164953256338e-05</v>
       </c>
       <c r="F85" s="0">
-        <v>2.503266272047e-08</v>
+        <v>8.9523280663583726e-09</v>
       </c>
       <c r="G85" s="0">
-        <v>-3.9441348713550525e-07</v>
+        <v>-4.2540701817141494e-07</v>
       </c>
       <c r="H85" s="0">
-        <v>7.982513199082898e-07</v>
+        <v>1.9453948953588531e-07</v>
       </c>
       <c r="I85" s="0">
-        <v>0.00094580831001511159</v>
+        <v>0.00094248672519976035</v>
       </c>
       <c r="J85" s="0">
-        <v>8.9072655892400166e-07</v>
+        <v>4.6786417716703328e-07</v>
       </c>
     </row>
     <row r="86">
@@ -3041,28 +2861,28 @@
         <v>1</v>
       </c>
       <c r="C86" s="0">
-        <v>0.00093865835650319696</v>
+        <v>0.00094113427234976399</v>
       </c>
       <c r="D86" s="0">
-        <v>8.7772376678840747e-05</v>
+        <v>6.2806561729078503e-05</v>
       </c>
       <c r="E86" s="0">
-        <v>0.00015007475948160064</v>
+        <v>1.0539780420081676e-05</v>
       </c>
       <c r="F86" s="0">
-        <v>1.8457132312105218e-07</v>
+        <v>4.2067799417566665e-08</v>
       </c>
       <c r="G86" s="0">
-        <v>-9.2268989352207315e-08</v>
+        <v>-3.5322309410159777e-07</v>
       </c>
       <c r="H86" s="0">
-        <v>1.5023512298858417e-06</v>
+        <v>1.055162888083142e-07</v>
       </c>
       <c r="I86" s="0">
-        <v>0.0009546234513013995</v>
+        <v>0.00094328652580159963</v>
       </c>
       <c r="J86" s="0">
-        <v>1.5164561838886856e-06</v>
+        <v>3.7103900220653675e-07</v>
       </c>
     </row>
     <row r="87">
@@ -3073,28 +2893,28 @@
         <v>1</v>
       </c>
       <c r="C87" s="0">
-        <v>0.00094067355641325179</v>
+        <v>0.00094085747768080097</v>
       </c>
       <c r="D87" s="0">
-        <v>6.2371297869456832e-05</v>
+        <v>6.9219508831375176e-05</v>
       </c>
       <c r="E87" s="0">
-        <v>9.5936249635151754e-05</v>
+        <v>1.7466961315161685e-05</v>
       </c>
       <c r="F87" s="0">
-        <v>4.2374025933933357e-08</v>
+        <v>7.2143649117173414e-08</v>
       </c>
       <c r="G87" s="0">
-        <v>-3.598914588183455e-07</v>
+        <v>-2.9137510134270156e-07</v>
       </c>
       <c r="H87" s="0">
-        <v>9.6039026273828216e-07</v>
+        <v>1.7485067641572237e-07</v>
       </c>
       <c r="I87" s="0">
-        <v>0.00094760787382077707</v>
+        <v>0.00094356198972209615</v>
       </c>
       <c r="J87" s="0">
-        <v>1.0264827699317476e-06</v>
+        <v>3.4738582992610263e-07</v>
       </c>
     </row>
     <row r="88">
@@ -3105,28 +2925,28 @@
         <v>1</v>
       </c>
       <c r="C88" s="0">
-        <v>0.00094123856361782998</v>
+        <v>0.00094158172813330054</v>
       </c>
       <c r="D88" s="0">
-        <v>6.0390456584402674e-05</v>
+        <v>5.4893310396042505e-05</v>
       </c>
       <c r="E88" s="0">
-        <v>9.182162852656444e-05</v>
+        <v>1.34943542140688e-05</v>
       </c>
       <c r="F88" s="0">
-        <v>3.197006968880256e-08</v>
+        <v>2.796807868632456e-09</v>
       </c>
       <c r="G88" s="0">
-        <v>-3.8117136967000947e-07</v>
+        <v>-4.3885094487116499e-07</v>
       </c>
       <c r="H88" s="0">
-        <v>9.1920016908432256e-07</v>
+        <v>1.3508775237608353e-07</v>
       </c>
       <c r="I88" s="0">
-        <v>0.00094763297344124678</v>
+        <v>0.00094327701332979795</v>
       </c>
       <c r="J88" s="0">
-        <v>9.9561169602243273e-07</v>
+        <v>4.5918043816193911e-07</v>
       </c>
     </row>
     <row r="89">
@@ -3137,28 +2957,28 @@
         <v>1</v>
       </c>
       <c r="C89" s="0">
-        <v>0.00093977071152728797</v>
+        <v>0.00094018504464088437</v>
       </c>
       <c r="D89" s="0">
-        <v>6.7552326084796555e-05</v>
+        <v>6.4925586757691445e-05</v>
       </c>
       <c r="E89" s="0">
-        <v>7.7452736550401958e-05</v>
+        <v>1.3422136145701656e-05</v>
       </c>
       <c r="F89" s="0">
-        <v>6.580771387543205e-08</v>
+        <v>5.3476043627986858e-08</v>
       </c>
       <c r="G89" s="0">
-        <v>-3.0328411193027149e-07</v>
+        <v>-3.3243419424308293e-07</v>
       </c>
       <c r="H89" s="0">
-        <v>7.7536124737767172e-07</v>
+        <v>1.3436526948882369e-07</v>
       </c>
       <c r="I89" s="0">
-        <v>0.00094537359461914201</v>
+        <v>0.00094251970999068555</v>
       </c>
       <c r="J89" s="0">
-        <v>8.3516284142070353e-07</v>
+        <v>3.6252752500872865e-07</v>
       </c>
     </row>
     <row r="90">
@@ -3169,28 +2989,28 @@
         <v>1</v>
       </c>
       <c r="C90" s="0">
-        <v>0.00094015679493342219</v>
+        <v>0.00094149997514492156</v>
       </c>
       <c r="D90" s="0">
-        <v>6.1280670004881799e-05</v>
+        <v>5.4710132915414267e-05</v>
       </c>
       <c r="E90" s="0">
-        <v>9.3955742424025012e-05</v>
+        <v>1.3743821638630255e-05</v>
       </c>
       <c r="F90" s="0">
-        <v>3.6851966582485129e-08</v>
+        <v>1.9224173086751506e-09</v>
       </c>
       <c r="G90" s="0">
-        <v>-3.7064524954734043e-07</v>
+        <v>-4.4065960731927423e-07</v>
       </c>
       <c r="H90" s="0">
-        <v>9.4056392435367537e-07</v>
+        <v>1.3758508831256016e-07</v>
       </c>
       <c r="I90" s="0">
-        <v>0.0009468251164339599</v>
+        <v>0.00094318836638009095</v>
       </c>
       <c r="J90" s="0">
-        <v>1.011630596734101e-06</v>
+        <v>4.6164298081641038e-07</v>
       </c>
     </row>
     <row r="91">
@@ -3201,28 +3021,28 @@
         <v>1</v>
       </c>
       <c r="C91" s="0">
-        <v>0.00094011956398887264</v>
+        <v>0.00093972252060048334</v>
       </c>
       <c r="D91" s="0">
-        <v>7.9238879335752355e-05</v>
+        <v>8.9932599326103535e-05</v>
       </c>
       <c r="E91" s="0">
-        <v>0.00012449638103791136</v>
+        <v>3.0608634678312749e-05</v>
       </c>
       <c r="F91" s="0">
-        <v>1.2754495676975397e-07</v>
+        <v>1.9590524966833778e-07</v>
       </c>
       <c r="G91" s="0">
-        <v>-1.8335013959305466e-07</v>
+        <v>-7.0984118699744109e-08</v>
       </c>
       <c r="H91" s="0">
-        <v>1.2462966157867498e-06</v>
+        <v>3.0641258347233871e-07</v>
       </c>
       <c r="I91" s="0">
-        <v>0.00095163172681691881</v>
+        <v>0.00094451213685274886</v>
       </c>
       <c r="J91" s="0">
-        <v>1.2661517461219631e-06</v>
+        <v>3.7054862469773929e-07</v>
       </c>
     </row>
     <row r="92">
@@ -3233,28 +3053,28 @@
         <v>1</v>
       </c>
       <c r="C92" s="0">
-        <v>0.00094022541118476965</v>
+        <v>0.0009408628667362251</v>
       </c>
       <c r="D92" s="0">
-        <v>7.9352454492809255e-05</v>
+        <v>5.6614419770673052e-05</v>
       </c>
       <c r="E92" s="0">
-        <v>0.00012818300283958634</v>
+        <v>1.7846635985792691e-05</v>
       </c>
       <c r="F92" s="0">
-        <v>1.2864148889873972e-07</v>
+        <v>1.1589180837212609e-08</v>
       </c>
       <c r="G92" s="0">
-        <v>-1.8224697764628039e-07</v>
+        <v>-4.2013818842825609e-07</v>
       </c>
       <c r="H92" s="0">
-        <v>1.283202299639212e-06</v>
+        <v>1.7865724648079186e-07</v>
       </c>
       <c r="I92" s="0">
-        <v>0.00095223501200521709</v>
+        <v>0.00094273359383501714</v>
       </c>
       <c r="J92" s="0">
-        <v>1.3024479779732664e-06</v>
+        <v>4.5669335248977825e-07</v>
       </c>
     </row>
     <row r="93">
@@ -3265,28 +3085,28 @@
         <v>1</v>
       </c>
       <c r="C93" s="0">
-        <v>0.0009390093724732651</v>
+        <v>0.00094152894422894207</v>
       </c>
       <c r="D93" s="0">
-        <v>9.1262443674688942e-05</v>
+        <v>5.4813867723824128e-05</v>
       </c>
       <c r="E93" s="0">
-        <v>0.0001571642377877134</v>
+        <v>1.7098677935035269e-05</v>
       </c>
       <c r="F93" s="0">
-        <v>2.0463694950373368e-07</v>
+        <v>2.2556276221830096e-09</v>
       </c>
       <c r="G93" s="0">
-        <v>-5.6169033804329138e-08</v>
+        <v>-4.3964497809054898e-07</v>
       </c>
       <c r="H93" s="0">
-        <v>1.573321247569479e-06</v>
+        <v>1.7116967551288806e-07</v>
       </c>
       <c r="I93" s="0">
-        <v>0.00095643506463194026</v>
+        <v>0.00094327815500139581</v>
       </c>
       <c r="J93" s="0">
-        <v>1.5875676330519867e-06</v>
+        <v>4.7179640993907173e-07</v>
       </c>
     </row>
     <row r="94">
@@ -3297,28 +3117,28 @@
         <v>1</v>
       </c>
       <c r="C94" s="0">
-        <v>0.00093944841008131164</v>
+        <v>0.0009402305732635341</v>
       </c>
       <c r="D94" s="0">
-        <v>7.0298156726933403e-05</v>
+        <v>6.5459033083026252e-05</v>
       </c>
       <c r="E94" s="0">
-        <v>8.9618440626990672e-05</v>
+        <v>1.3296399562558546e-05</v>
       </c>
       <c r="F94" s="0">
-        <v>7.9644549649815488e-08</v>
+        <v>5.4317797010261515e-08</v>
       </c>
       <c r="G94" s="0">
-        <v>-2.7391354173820354e-07</v>
+        <v>-3.2565154678117561e-07</v>
       </c>
       <c r="H94" s="0">
-        <v>8.9714974419037741e-07</v>
+        <v>1.3310977354545838e-07</v>
       </c>
       <c r="I94" s="0">
-        <v>0.00094632796162003063</v>
+        <v>0.00094260023878257415</v>
       </c>
       <c r="J94" s="0">
-        <v>9.4140827813300435e-07</v>
+        <v>3.5597410693243319e-07</v>
       </c>
     </row>
     <row r="95">
@@ -3329,28 +3149,28 @@
         <v>1</v>
       </c>
       <c r="C95" s="0">
-        <v>0.00093971408833581904</v>
+        <v>0.00094042796349391722</v>
       </c>
       <c r="D95" s="0">
-        <v>7.3829628762289712e-05</v>
+        <v>5.5682214913754802e-05</v>
       </c>
       <c r="E95" s="0">
-        <v>0.00010336060321368671</v>
+        <v>1.7538776123025759e-05</v>
       </c>
       <c r="F95" s="0">
-        <v>9.9406891100606298e-08</v>
+        <v>6.9429983012847529e-09</v>
       </c>
       <c r="G95" s="0">
-        <v>-2.376099368988846e-07</v>
+        <v>-4.2933167150984233e-07</v>
       </c>
       <c r="H95" s="0">
-        <v>1.0347167567750165e-06</v>
+        <v>1.7557532686140977e-07</v>
       </c>
       <c r="I95" s="0">
-        <v>0.00094825987798529906</v>
+        <v>0.00094223822478549011</v>
       </c>
       <c r="J95" s="0">
-        <v>1.066292163931813e-06</v>
+        <v>4.6389717049076477e-07</v>
       </c>
     </row>
     <row r="96">
@@ -3361,28 +3181,28 @@
         <v>1</v>
       </c>
       <c r="C96" s="0">
-        <v>0.0009397042874823569</v>
+        <v>0.0009397089622815713</v>
       </c>
       <c r="D96" s="0">
-        <v>7.3798723549844958e-05</v>
+        <v>7.5569960096055766e-05</v>
       </c>
       <c r="E96" s="0">
-        <v>0.00010502382283829614</v>
+        <v>2.2909630602547519e-05</v>
       </c>
       <c r="F96" s="0">
-        <v>9.928844014323035e-08</v>
+        <v>1.068441780743834e-07</v>
       </c>
       <c r="G96" s="0">
-        <v>-2.3791216663448037e-07</v>
+        <v>-2.2122697318450665e-07</v>
       </c>
       <c r="H96" s="0">
-        <v>1.0513669348987307e-06</v>
+        <v>2.2934152132660315e-07</v>
       </c>
       <c r="I96" s="0">
-        <v>0.00094843049448754032</v>
+        <v>0.00094302099861857383</v>
       </c>
       <c r="J96" s="0">
-        <v>1.0825122748390156e-06</v>
+        <v>3.3608716943252942e-07</v>
       </c>
     </row>
     <row r="97">
@@ -3393,28 +3213,28 @@
         <v>1</v>
       </c>
       <c r="C97" s="0">
-        <v>0.0009395180228235489</v>
+        <v>0.00093984459535434439</v>
       </c>
       <c r="D97" s="0">
-        <v>8.6527828307536581e-05</v>
+        <v>7.5775562271562791e-05</v>
       </c>
       <c r="E97" s="0">
-        <v>0.00014675398009621866</v>
+        <v>2.3963013414604003e-05</v>
       </c>
       <c r="F97" s="0">
-        <v>1.7735014393865933e-07</v>
+        <v>1.0826799481944427e-07</v>
       </c>
       <c r="G97" s="0">
-        <v>-1.0627203016200237e-07</v>
+        <v>-2.1921192722845761e-07</v>
       </c>
       <c r="H97" s="0">
-        <v>1.4691083968442407e-06</v>
+        <v>2.3988662450865472e-07</v>
       </c>
       <c r="I97" s="0">
-        <v>0.00095483920685944317</v>
+        <v>0.00094319882594617942</v>
       </c>
       <c r="J97" s="0">
-        <v>1.4835856226143712e-06</v>
+        <v>3.4252214579439109e-07</v>
       </c>
     </row>
     <row r="98">
@@ -3425,28 +3245,28 @@
         <v>1</v>
       </c>
       <c r="C98" s="0">
-        <v>0.00093866705093503811</v>
+        <v>0.00093841185716669884</v>
       </c>
       <c r="D98" s="0">
-        <v>9.3190238503459977e-05</v>
+        <v>9.3105588497455205e-05</v>
       </c>
       <c r="E98" s="0">
-        <v>0.00016679938044272341</v>
+        <v>3.2775815858998209e-05</v>
       </c>
       <c r="F98" s="0">
-        <v>2.1725700766889178e-07</v>
+        <v>2.1466939708475463e-07</v>
       </c>
       <c r="G98" s="0">
-        <v>-3.5493975335254557e-08</v>
+        <v>-3.6259499420782798e-08</v>
       </c>
       <c r="H98" s="0">
-        <v>1.6697751298149058e-06</v>
+        <v>3.2810730668145798e-07</v>
       </c>
       <c r="I98" s="0">
-        <v>0.00095791559460084452</v>
+        <v>0.00094358874430852191</v>
       </c>
       <c r="J98" s="0">
-        <v>1.6842236828327543e-06</v>
+        <v>3.9376656287797991e-07</v>
       </c>
     </row>
     <row r="99">
@@ -3457,28 +3277,28 @@
         <v>1</v>
       </c>
       <c r="C99" s="0">
-        <v>0.00094109840510370191</v>
+        <v>0.00093974492329973458</v>
       </c>
       <c r="D99" s="0">
-        <v>6.6766327082745658e-05</v>
+        <v>6.7909008444388963e-05</v>
       </c>
       <c r="E99" s="0">
-        <v>7.3314579287250814e-05</v>
+        <v>1.5768873937493566e-05</v>
       </c>
       <c r="F99" s="0">
-        <v>6.3202654221328203e-08</v>
+        <v>6.6424234876349963e-08</v>
       </c>
       <c r="G99" s="0">
-        <v>-3.1429330665019156e-07</v>
+        <v>-2.9918822652078708e-07</v>
       </c>
       <c r="H99" s="0">
-        <v>7.3393189644320878e-07</v>
+        <v>1.5786215950653143e-07</v>
       </c>
       <c r="I99" s="0">
-        <v>0.00094630807777220109</v>
+        <v>0.00094232733786130856</v>
       </c>
       <c r="J99" s="0">
-        <v>8.0089380489703944e-07</v>
+        <v>3.4474082333200385e-07</v>
       </c>
     </row>
     <row r="100">
@@ -3489,28 +3309,28 @@
         <v>1</v>
       </c>
       <c r="C100" s="0">
-        <v>0.00093951226945687694</v>
+        <v>0.0009396484817072448</v>
       </c>
       <c r="D100" s="0">
-        <v>7.0357813720001161e-05</v>
+        <v>7.0743161179553926e-05</v>
       </c>
       <c r="E100" s="0">
-        <v>9.2233908041268787e-05</v>
+        <v>1.8145795623436982e-05</v>
       </c>
       <c r="F100" s="0">
-        <v>8.029476480930775e-08</v>
+        <v>8.2341218073100908e-08</v>
       </c>
       <c r="G100" s="0">
-        <v>-2.7332621813569088e-07</v>
+        <v>-2.6975377483964488e-07</v>
       </c>
       <c r="H100" s="0">
-        <v>9.2333251752603215e-07</v>
+        <v>1.816557947743834e-07</v>
       </c>
       <c r="I100" s="0">
-        <v>0.0009466470409841436</v>
+        <v>0.00094248243162788677</v>
       </c>
       <c r="J100" s="0">
-        <v>9.6628019160960855e-07</v>
+        <v>3.3547876685285567e-07</v>
       </c>
     </row>
     <row r="101">
@@ -3521,28 +3341,28 @@
         <v>1</v>
       </c>
       <c r="C101" s="0">
-        <v>0.00094041073194883751</v>
+        <v>0.00093971415251115076</v>
       </c>
       <c r="D101" s="0">
-        <v>5.8630411124638293e-05</v>
+        <v>7.0882995205023835e-05</v>
       </c>
       <c r="E101" s="0">
-        <v>8.0800912880215999e-05</v>
+        <v>1.8799871971381338e-05</v>
       </c>
       <c r="F101" s="0">
-        <v>2.3112707726868909e-08</v>
+        <v>8.3032163200602582e-08</v>
       </c>
       <c r="G101" s="0">
-        <v>-3.985193603854055e-07</v>
+        <v>-2.6837027482804268e-07</v>
       </c>
       <c r="H101" s="0">
-        <v>8.0887468673416885e-07</v>
+        <v>1.882037332316449e-07</v>
       </c>
       <c r="I101" s="0">
-        <v>0.00094569480140025547</v>
+        <v>0.00094257122947028578</v>
       </c>
       <c r="J101" s="0">
-        <v>9.0201448807641671e-07</v>
+        <v>3.3813841801750183e-07</v>
       </c>
     </row>
   </sheetData>
